--- a/DesignDocuments/(5Team) Architecture Driver Specification_v4_1.xlsx
+++ b/DesignDocuments/(5Team) Architecture Driver Specification_v4_1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12480" yWindow="0" windowWidth="19530" windowHeight="8295" tabRatio="813" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="19530" windowHeight="8295" tabRatio="813" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="(Context)" sheetId="12" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="(QA) 2. Reserve a slot" sheetId="14" r:id="rId11"/>
     <sheet name="(QA) 3. Park a car" sheetId="15" r:id="rId12"/>
     <sheet name="(C) Constraints" sheetId="11" r:id="rId13"/>
+    <sheet name="(Design) Elements" sheetId="16" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'(FR) 1. Manage'!$A$1:$E$36</definedName>
@@ -212,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="571">
   <si>
     <t>FR-202</t>
   </si>
@@ -235,9 +236,6 @@
     <t>FR-208</t>
   </si>
   <si>
-    <t>The system shall keep reservation process going on input failure of payment information.</t>
-  </si>
-  <si>
     <t>FR-209</t>
   </si>
   <si>
@@ -250,10 +248,6 @@
     <t>FR-212</t>
   </si>
   <si>
-    <t>The system shall provide the detailed reservation information corresponding to the confirmation information that a driver inputs.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FR-213</t>
   </si>
   <si>
@@ -285,56 +279,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The system shall provide selectable parking information to a driver.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Hgh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The system shall provide selectable parking information on a driver's request.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- Parking information on a driver's request</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Mid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The system should be able to handle input of a driver identification.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The system shall provide estimated amount to a driver.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The system should be able to handle input of reservation confirmation.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UC 2.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The system should be able to verify confirmation information that a driver inputs.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The system should be able to process a cancellation request.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- credit card number, expiration date, owner name, CVC
-- 1$ charge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The system should be able to handle input of driver's payment information.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -875,30 +828,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The driver is connected to system using driver authority</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. System display an available parking lot, expected amount fee, and information.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. Driver enters indentification and payment information, and confirms the reservation.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Driver receive confirmation information for reservation.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5. System receive, verify payment information, and store request information.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. System display the general information for parking lot.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Use Case Title : Confirmation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -911,54 +844,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. System display driver menu.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. Driver enters confirmation reservation menu, and enter confirmation information.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Repeat #3 until the end of driver's requests.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Repeat #2 until the end of driver's requests.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Driver check detailed reservation information.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3. System verify the confirmation information.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. System display detailed reservation informaiton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5. Driver cancel the reservation.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6. System verify the request.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7. System display result.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Use Case ID : UC 3.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Use Case Title : Parking</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>This use case describe how to park a car in parking lot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -980,10 +873,6 @@
   </si>
   <si>
     <t>This use case describe how to check-out when leaving parking lot.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prior to the scheduled time to complete, the driver is on board the car.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1245,14 +1134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The system should be able to handle input of date and time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The system shall provide confirmation information to a driver.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -1386,34 +1267,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2. Driver enters date and time.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6. System send the confirmation information to driver.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alternate use case #5-A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alternate use case #3-A, #5-A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-A.1 If driver's payment information is not verified, system show an alarm.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-A.1 If driver's confirmation information is not valid, system show an alarm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-A.1 If driver's request is not valid, system show an alarm.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Alternate use case #1-A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1814,19 +1667,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The system shall be able to provide at least one method for parking reservation.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The system should provide the parking state per parking space.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FR-134</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- Number of parking lot, location of parking lot, reservable parking slots, fare, grace period</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2226,6 +2071,294 @@
   </si>
   <si>
     <t>11. System turn on the exit gate light as red, then close the exit gate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>High</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System shall provide at least one method for parking lot reservation.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- name, location, availability for reservation, fee, grace period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System shall handle driver's reservation request.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System shall handle the identification information of driver.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System should be able to provide a list of parking lots.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System should be able to provide information for selected parking lot.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System shall store the driver's reservation request.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- reservation request includes following data
+: parking reservation time (date/time)
+: payment information (credit card)
+: selected parking lot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System shall encrypt the private information of driver.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System shall verify the driver's reservation request.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- include fee, grace period
+- when request is verified</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- payment information (credit card)
+- when request is verified</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System shall provde the confirmation information for request.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- the confirmation information will be a QR code.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- determining whether it can process or not
+- check the payment information</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System shall display the received confirmation information.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SE-02</t>
+  </si>
+  <si>
+    <t>SE-03</t>
+  </si>
+  <si>
+    <t>SE-04</t>
+  </si>
+  <si>
+    <t>SE-05</t>
+  </si>
+  <si>
+    <t>SE-06</t>
+  </si>
+  <si>
+    <t>ParkServer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParkingLot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParkHere (Owner)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParkHere (Attendant)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParkHere (Driver)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParkView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SE-05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SE-01
+SE-05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SE-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System should notify errors to driver in reservation process.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- No available parking slot for reservation request
+- The payment information is not valid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System should be able to display the reservation information.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>High</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Security</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System shall store private data with encryption</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- due to no-show until grace period
+- due to cancel request by driver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System should cancel the reservation.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- the driver should enter id, pw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. System display the general information for selected parking lot.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. Driver selects a parking lot.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. System display the list of parking lot(s).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. Driver enters date and time.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-A.2 System receive, verify payment information, and store request information.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-A.1 If available, driver enters valid payment information.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-B.1 If not available, system notify the request is not acceptable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Repeat #1 until the end of driver's requests.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. System send the confirmation information to driver.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. System check the availability of resevation request.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alternate use case #6-A.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-A.3 If driver's payment information is not verified, system notify the error to driver.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The driver logged in with unique account.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. System display list of reservation.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. Driver selects a reservation.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. System display the detailed information of selected reservation.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. Driver requests to cancel the reservation.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. System verify the request.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. System display result.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Repeat #1 until the end of driver's requests.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use Case Title : Parking #2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use Case Title : Parking #1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This use case describe when driver does not arrive until grace period of reservation.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The driver is on board the car.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The driver did not show up at parking lot until the end of reservation's grace period.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. System recognize driver's no-show until the end of grace period.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. System cancel the reservation.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System cancel the reservation.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2761,7 +2894,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2960,16 +3093,16 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2977,6 +3110,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3514,40 +3653,40 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="51" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="C2" s="51"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="19" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="30" x14ac:dyDescent="0.3">
       <c r="B5" s="19" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="90" x14ac:dyDescent="0.3">
       <c r="B6" s="19" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
@@ -3556,100 +3695,100 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="51" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="C8" s="51"/>
     </row>
     <row r="9" spans="2:3" ht="105" x14ac:dyDescent="0.3">
       <c r="B9" s="19" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="30" x14ac:dyDescent="0.3">
       <c r="B10" s="19" t="s">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="52" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="C12" s="53"/>
     </row>
     <row r="13" spans="2:3" ht="30" x14ac:dyDescent="0.3">
       <c r="B13" s="19" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="30" x14ac:dyDescent="0.3">
       <c r="B14" s="19" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="19" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="45" x14ac:dyDescent="0.3">
       <c r="B16" s="19" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="51" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="C18" s="51"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="19" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="19" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>340</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="19" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="19" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>446</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -3682,58 +3821,58 @@
     <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>358</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="26" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>359</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>317</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>360</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="24" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>361</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="25" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>362</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3741,58 +3880,58 @@
     </row>
     <row r="10" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>363</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="26" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>364</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="24" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>365</v>
+        <v>328</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="C13" s="29" t="s">
         <v>317</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="24" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>366</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="24" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>367</v>
+        <v>330</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="25" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>368</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3800,292 +3939,292 @@
     </row>
     <row r="18" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="26" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>364</v>
+        <v>327</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="24" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="C21" s="29" t="s">
         <v>317</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="24" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>366</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="24" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>371</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="25" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>368</v>
+        <v>331</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="33" t="s">
-        <v>372</v>
+        <v>335</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>373</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="35" t="s">
-        <v>374</v>
+        <v>337</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>375</v>
+        <v>338</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="35" t="s">
-        <v>376</v>
+        <v>339</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>377</v>
+        <v>340</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="35" t="s">
-        <v>378</v>
+        <v>341</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>379</v>
+        <v>342</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="35" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>380</v>
+        <v>343</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="35" t="s">
-        <v>381</v>
+        <v>344</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>382</v>
+        <v>345</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="35" t="s">
-        <v>383</v>
+        <v>346</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>384</v>
+        <v>347</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="33" t="s">
-        <v>372</v>
+        <v>335</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>385</v>
+        <v>348</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="35" t="s">
-        <v>374</v>
+        <v>337</v>
       </c>
       <c r="C35" s="36" t="s">
-        <v>386</v>
+        <v>349</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="35" t="s">
-        <v>376</v>
+        <v>339</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="35" t="s">
-        <v>378</v>
+        <v>341</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>388</v>
+        <v>351</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="35" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="C38" s="37" t="s">
-        <v>380</v>
+        <v>343</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="35" t="s">
-        <v>381</v>
+        <v>344</v>
       </c>
       <c r="C39" s="36" t="s">
-        <v>389</v>
+        <v>352</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="35" t="s">
-        <v>383</v>
+        <v>346</v>
       </c>
       <c r="C40" s="37" t="s">
-        <v>390</v>
+        <v>353</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="42" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="33" t="s">
-        <v>372</v>
+        <v>335</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>391</v>
+        <v>354</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="35" t="s">
-        <v>374</v>
+        <v>337</v>
       </c>
       <c r="C43" s="37" t="s">
-        <v>392</v>
+        <v>355</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="35" t="s">
-        <v>376</v>
+        <v>339</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>393</v>
+        <v>356</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="35" t="s">
-        <v>378</v>
+        <v>341</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>379</v>
+        <v>342</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="35" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>394</v>
+        <v>357</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B47" s="70" t="s">
-        <v>381</v>
+        <v>344</v>
       </c>
       <c r="C47" s="38" t="s">
-        <v>395</v>
+        <v>358</v>
       </c>
     </row>
     <row r="48" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="71"/>
       <c r="C48" s="37" t="s">
-        <v>396</v>
+        <v>359</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="35" t="s">
-        <v>383</v>
+        <v>346</v>
       </c>
       <c r="C49" s="37" t="s">
-        <v>397</v>
+        <v>360</v>
       </c>
     </row>
     <row r="50" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="51" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C51" s="39" t="s">
-        <v>398</v>
+        <v>361</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" s="26" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53" s="24" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="C53" s="41" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B54" s="24" t="s">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="C54" s="41" t="s">
-        <v>379</v>
+        <v>342</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55" s="24" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="C55" s="41" t="s">
-        <v>400</v>
+        <v>363</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B56" s="24" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="C56" s="41" t="s">
-        <v>401</v>
+        <v>364</v>
       </c>
     </row>
     <row r="57" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="25" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="C57" s="42" t="s">
-        <v>402</v>
+        <v>365</v>
       </c>
     </row>
     <row r="58" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4094,58 +4233,58 @@
     </row>
     <row r="59" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C59" s="39" t="s">
-        <v>403</v>
+        <v>366</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B60" s="26" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="C60" s="40" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B61" s="24" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="C61" s="41" t="s">
-        <v>404</v>
+        <v>367</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B62" s="24" t="s">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="C62" s="41" t="s">
-        <v>379</v>
+        <v>342</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B63" s="24" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="C63" s="41" t="s">
-        <v>366</v>
+        <v>329</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B64" s="24" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="C64" s="41" t="s">
-        <v>405</v>
+        <v>368</v>
       </c>
     </row>
     <row r="65" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B65" s="25" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="C65" s="42" t="s">
-        <v>406</v>
+        <v>369</v>
       </c>
     </row>
     <row r="66" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4154,58 +4293,58 @@
     </row>
     <row r="67" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B67" s="27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C67" s="39" t="s">
-        <v>407</v>
+        <v>370</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B68" s="26" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="C68" s="40" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B69" s="24" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="C69" s="41" t="s">
-        <v>408</v>
+        <v>371</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B70" s="24" t="s">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="C70" s="41" t="s">
-        <v>379</v>
+        <v>342</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B71" s="24" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="C71" s="41" t="s">
-        <v>366</v>
+        <v>329</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B72" s="24" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="C72" s="41" t="s">
-        <v>405</v>
+        <v>368</v>
       </c>
     </row>
     <row r="73" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B73" s="25" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="C73" s="42" t="s">
-        <v>406</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -4234,58 +4373,58 @@
     <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>352</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="26" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>317</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="C6" s="30" t="s">
         <v>318</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>319</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="C8" s="31" t="s">
         <v>320</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -4311,58 +4450,58 @@
     <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>341</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="26" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>409</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>342</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="24" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>344</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="25" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>345</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4370,58 +4509,58 @@
     </row>
     <row r="10" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>346</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="26" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>342</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="24" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>347</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="24" t="s">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>348</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="24" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>349</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="24" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="25" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>351</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -4452,156 +4591,224 @@
   <sheetData>
     <row r="1" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>448</v>
+        <v>409</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>445</v>
+        <v>406</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>449</v>
+        <v>410</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>447</v>
+        <v>408</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>518</v>
+      </c>
+      <c r="C3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>519</v>
+      </c>
+      <c r="C4" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>520</v>
+      </c>
+      <c r="C5" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>521</v>
+      </c>
+      <c r="C6" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>522</v>
+      </c>
+      <c r="C7" t="s">
+        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -4614,11 +4821,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4632,586 +4839,586 @@
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>422</v>
+        <v>385</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>437</v>
+        <v>399</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>440</v>
+        <v>401</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>423</v>
+        <v>386</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="4" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>425</v>
+        <v>388</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>426</v>
+        <v>389</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>428</v>
+        <v>391</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C22" s="44" t="s">
-        <v>429</v>
+        <v>392</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="8" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>430</v>
+        <v>393</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="8" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>427</v>
+        <v>390</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="8" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="8" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="8" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C27" s="44" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>431</v>
+        <v>394</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="8" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="8" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="8" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D33" s="47" t="s">
-        <v>444</v>
+        <v>405</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C34" s="46" t="s">
-        <v>435</v>
+        <v>398</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>442</v>
+        <v>403</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C35" s="44" t="s">
-        <v>434</v>
+        <v>397</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>441</v>
+        <v>402</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>443</v>
+        <v>404</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -5224,242 +5431,297 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="85.75" customWidth="1"/>
-    <col min="4" max="4" width="60.625" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="85.75" customWidth="1"/>
+    <col min="5" max="5" width="60.625" customWidth="1"/>
+    <col min="6" max="6" width="10.25" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>438</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="C2" s="50" t="s">
+        <v>529</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>436</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>530</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>530</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="4" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>530</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>530</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>531</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>531</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>531</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>530</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>529</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>530</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4" t="s">
+    <row r="13" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>530</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="4" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>530</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -5473,11 +5735,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5485,506 +5747,540 @@
     <col min="1" max="1" width="8.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="85.75" customWidth="1"/>
-    <col min="5" max="5" width="60.5" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="73.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.5" customWidth="1"/>
+    <col min="6" max="6" width="7.25" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>438</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="49" t="s">
-        <v>477</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>507</v>
+        <v>468</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>455</v>
+        <v>416</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>454</v>
+        <v>415</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>508</v>
+        <v>469</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>469</v>
+        <v>430</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="F3" s="4"/>
+        <v>432</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>508</v>
+        <v>469</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>470</v>
+        <v>431</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="F4" s="4"/>
+        <v>432</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>508</v>
+        <v>469</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>457</v>
+        <v>418</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>509</v>
+        <v>470</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>458</v>
+        <v>419</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>509</v>
+        <v>470</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>459</v>
+        <v>420</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>507</v>
+        <v>468</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>472</v>
+        <v>433</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>456</v>
+        <v>417</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>507</v>
+        <v>468</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>473</v>
+        <v>434</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="F9" s="4"/>
+        <v>417</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>507</v>
+        <v>468</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>474</v>
+        <v>435</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="F10" s="4"/>
+        <v>421</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>507</v>
+        <v>468</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>475</v>
+        <v>436</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="F11" s="4"/>
+        <v>422</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>509</v>
+        <v>470</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>462</v>
+        <v>423</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>463</v>
+        <v>424</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>507</v>
+        <v>468</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>464</v>
+        <v>425</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>476</v>
+        <v>437</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>507</v>
+        <v>468</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>465</v>
+        <v>426</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>507</v>
+        <v>468</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>467</v>
+        <v>428</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="F15" s="4"/>
+        <v>429</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>507</v>
+        <v>468</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>466</v>
+        <v>427</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="F16" s="4"/>
+        <v>429</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>507</v>
+        <v>468</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>483</v>
+        <v>444</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>478</v>
+        <v>439</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>509</v>
+        <v>470</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>482</v>
+        <v>443</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>498</v>
+        <v>459</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>485</v>
+        <v>446</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>507</v>
+        <v>468</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>481</v>
+        <v>442</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="F19" s="4"/>
+        <v>441</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>485</v>
+        <v>446</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>509</v>
+        <v>470</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>479</v>
+        <v>440</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="F20" s="4"/>
+        <v>445</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>500</v>
+        <v>461</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>485</v>
+        <v>446</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>507</v>
+        <v>468</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>486</v>
+        <v>447</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="F21" s="4"/>
+        <v>458</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>501</v>
+        <v>462</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>485</v>
+        <v>446</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>507</v>
+        <v>468</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>487</v>
+        <v>448</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="F22" s="4"/>
+        <v>450</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>502</v>
+        <v>463</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>485</v>
+        <v>446</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>507</v>
+        <v>468</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>488</v>
+        <v>449</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="F23" s="4"/>
+        <v>450</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>503</v>
+        <v>464</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>485</v>
+        <v>446</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>509</v>
+        <v>470</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>490</v>
+        <v>451</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="F24" s="4"/>
+        <v>452</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>504</v>
+        <v>465</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>485</v>
+        <v>446</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>509</v>
+        <v>470</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>494</v>
+        <v>455</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="F25" s="4"/>
+        <v>456</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>505</v>
+        <v>466</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>485</v>
+        <v>446</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>507</v>
+        <v>468</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>492</v>
+        <v>453</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="F26" s="4"/>
+        <v>457</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>506</v>
+        <v>467</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>485</v>
+        <v>446</v>
       </c>
       <c r="C27" s="50" t="s">
-        <v>507</v>
+        <v>468</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>493</v>
+        <v>454</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="F27" s="4"/>
+        <v>422</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6013,8 +6309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C108"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51:C51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6027,632 +6323,632 @@
     <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="56" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C3" s="57"/>
     </row>
     <row r="4" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="54" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C4" s="55"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="56" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C5" s="57"/>
     </row>
     <row r="6" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="58" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C6" s="59"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="56" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C7" s="57"/>
     </row>
     <row r="8" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="54" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C8" s="55"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="56" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C9" s="57"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="58" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C10" s="59"/>
     </row>
     <row r="11" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="58" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C11" s="59"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="58" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C12" s="59"/>
     </row>
     <row r="13" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="58" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C13" s="59"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="56" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C14" s="57"/>
     </row>
     <row r="15" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="54" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C15" s="55"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16" s="56" t="s">
-        <v>330</v>
+        <v>293</v>
       </c>
       <c r="C16" s="57"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="58" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="C17" s="59"/>
     </row>
     <row r="18" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="54" t="s">
-        <v>332</v>
+        <v>295</v>
       </c>
       <c r="C18" s="55"/>
     </row>
     <row r="19" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="2" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="56" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C21" s="57"/>
     </row>
     <row r="22" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="54" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C22" s="55"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="56" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C23" s="57"/>
     </row>
     <row r="24" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="58" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C24" s="59"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="56" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C25" s="57"/>
     </row>
     <row r="26" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="54" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C26" s="55"/>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" s="56" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C27" s="57"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" s="58" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C28" s="59"/>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" s="58" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C29" s="59"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" s="58" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C30" s="59"/>
     </row>
     <row r="31" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="58" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C31" s="59"/>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" s="56" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C32" s="57"/>
     </row>
     <row r="33" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="54" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C33" s="55"/>
     </row>
     <row r="34" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="2" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" s="56" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C36" s="57"/>
     </row>
     <row r="37" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="54" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C37" s="55"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" s="56" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C38" s="57"/>
     </row>
     <row r="39" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="58" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C39" s="59"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40" s="56" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C40" s="57"/>
     </row>
     <row r="41" spans="2:3" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="54" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C41" s="55"/>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42" s="56" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C42" s="57"/>
     </row>
     <row r="43" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="58" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C43" s="59"/>
     </row>
     <row r="44" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="58" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C44" s="59"/>
     </row>
     <row r="45" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="58" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C45" s="59"/>
     </row>
     <row r="46" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="58" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="C46" s="59"/>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B47" s="56" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C47" s="57"/>
     </row>
     <row r="48" spans="2:3" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="54" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C48" s="55"/>
     </row>
     <row r="49" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="2" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" s="56" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C51" s="57"/>
     </row>
     <row r="52" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="54" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="C52" s="55"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53" s="56" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C53" s="57"/>
     </row>
     <row r="54" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="58" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C54" s="59"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55" s="56" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C55" s="57"/>
     </row>
     <row r="56" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B56" s="54" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C56" s="55"/>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B57" s="56" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C57" s="57"/>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B58" s="58" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C58" s="59"/>
     </row>
     <row r="59" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="58" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C59" s="59"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B60" s="58" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C60" s="59"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B61" s="58" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="C61" s="59"/>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B62" s="58" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C62" s="59"/>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B63" s="58" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="C63" s="59"/>
     </row>
     <row r="64" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B64" s="58" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C64" s="59"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B65" s="56" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C65" s="57"/>
     </row>
     <row r="66" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B66" s="54" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C66" s="55"/>
     </row>
     <row r="67" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="68" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B68" s="2" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B69" s="56" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C69" s="57"/>
     </row>
     <row r="70" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B70" s="58" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="C70" s="59"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B71" s="68" t="s">
-        <v>131</v>
-      </c>
-      <c r="C71" s="69"/>
+      <c r="B71" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="C71" s="67"/>
     </row>
     <row r="72" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B72" s="60" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C72" s="61"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B73" s="62" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C73" s="63"/>
     </row>
     <row r="74" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B74" s="64" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C74" s="65"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B75" s="62" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C75" s="63"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B76" s="60" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C76" s="61"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B77" s="60" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C77" s="61"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B78" s="60" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C78" s="61"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B79" s="60" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C79" s="61"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B80" s="60" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C80" s="61"/>
     </row>
     <row r="81" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="60" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C81" s="61"/>
     </row>
     <row r="82" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B82" s="60" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C82" s="61"/>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B83" s="62" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C83" s="63"/>
     </row>
     <row r="84" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B84" s="64" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C84" s="65"/>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B85" s="62" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
       <c r="C85" s="63"/>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B86" s="60" t="s">
-        <v>334</v>
+        <v>297</v>
       </c>
       <c r="C86" s="61"/>
     </row>
     <row r="87" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="66" t="s">
-        <v>335</v>
-      </c>
-      <c r="C87" s="67"/>
+      <c r="B87" s="68" t="s">
+        <v>298</v>
+      </c>
+      <c r="C87" s="69"/>
     </row>
     <row r="88" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="89" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B89" s="2" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B90" s="56" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C90" s="57"/>
     </row>
     <row r="91" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B91" s="58" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C91" s="59"/>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B92" s="68" t="s">
-        <v>131</v>
-      </c>
-      <c r="C92" s="69"/>
+      <c r="B92" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="C92" s="67"/>
     </row>
     <row r="93" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B93" s="60" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C93" s="61"/>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B94" s="62" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C94" s="63"/>
     </row>
     <row r="95" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B95" s="64" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C95" s="65"/>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B96" s="62" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C96" s="63"/>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B97" s="60" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C97" s="61"/>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B98" s="60" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C98" s="61"/>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B99" s="60" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="C99" s="61"/>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B100" s="60" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C100" s="61"/>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B101" s="60" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C101" s="61"/>
     </row>
     <row r="102" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B102" s="60" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C102" s="61"/>
     </row>
     <row r="103" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B103" s="60" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C103" s="61"/>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B104" s="62" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C104" s="63"/>
     </row>
     <row r="105" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B105" s="64" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C105" s="65"/>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B106" s="62" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
       <c r="C106" s="63"/>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B107" s="60" t="s">
-        <v>336</v>
+        <v>299</v>
       </c>
       <c r="C107" s="61"/>
     </row>
     <row r="108" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="66" t="s">
-        <v>337</v>
-      </c>
-      <c r="C108" s="67"/>
+      <c r="B108" s="68" t="s">
+        <v>300</v>
+      </c>
+      <c r="C108" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="96">
@@ -6679,11 +6975,6 @@
     <mergeCell ref="B90:C90"/>
     <mergeCell ref="B91:C91"/>
     <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
     <mergeCell ref="B82:C82"/>
     <mergeCell ref="B83:C83"/>
     <mergeCell ref="B84:C84"/>
@@ -6696,6 +6987,11 @@
     <mergeCell ref="B72:C72"/>
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="B54:C54"/>
@@ -6762,7 +7058,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C42"/>
+  <dimension ref="B1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B43" sqref="B43"/>
@@ -6778,283 +7074,276 @@
     <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="10" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="62" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C3" s="63"/>
     </row>
     <row r="4" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="64" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C4" s="65"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="62" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C5" s="63"/>
     </row>
     <row r="6" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="60" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C6" s="61"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="62" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C7" s="63"/>
     </row>
     <row r="8" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="64" t="s">
-        <v>190</v>
+        <v>555</v>
       </c>
       <c r="C8" s="65"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="62" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C9" s="63"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="60" t="s">
-        <v>195</v>
+        <v>545</v>
       </c>
       <c r="C10" s="61"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="60" t="s">
-        <v>323</v>
+        <v>544</v>
       </c>
       <c r="C11" s="61"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="60" t="s">
-        <v>191</v>
+        <v>543</v>
       </c>
       <c r="C12" s="61"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="60" t="s">
-        <v>192</v>
+        <v>546</v>
       </c>
       <c r="C13" s="61"/>
     </row>
-    <row r="14" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="60" t="s">
-        <v>194</v>
+        <v>552</v>
       </c>
       <c r="C14" s="61"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="60" t="s">
-        <v>324</v>
+        <v>548</v>
       </c>
       <c r="C15" s="61"/>
     </row>
-    <row r="16" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16" s="60" t="s">
-        <v>201</v>
+        <v>547</v>
       </c>
       <c r="C16" s="61"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="63"/>
-    </row>
-    <row r="18" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="64" t="s">
-        <v>193</v>
-      </c>
-      <c r="C18" s="65"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="62" t="s">
-        <v>325</v>
-      </c>
-      <c r="C19" s="63"/>
-    </row>
-    <row r="20" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="66" t="s">
-        <v>327</v>
-      </c>
-      <c r="C20" s="67"/>
-    </row>
-    <row r="21" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="C23" s="57"/>
-    </row>
-    <row r="24" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="54" t="s">
-        <v>198</v>
-      </c>
-      <c r="C24" s="55"/>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="62" t="s">
-        <v>131</v>
-      </c>
-      <c r="C25" s="63"/>
-    </row>
-    <row r="26" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="60" t="s">
-        <v>189</v>
-      </c>
-      <c r="C26" s="61"/>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="62" t="s">
-        <v>132</v>
-      </c>
-      <c r="C27" s="63"/>
-    </row>
-    <row r="28" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="64" t="s">
-        <v>190</v>
-      </c>
-      <c r="C28" s="65"/>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="62" t="s">
-        <v>133</v>
-      </c>
-      <c r="C29" s="63"/>
+      <c r="B17" s="60" t="s">
+        <v>549</v>
+      </c>
+      <c r="C17" s="61"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="60" t="s">
+        <v>550</v>
+      </c>
+      <c r="C18" s="61"/>
+    </row>
+    <row r="19" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="60" t="s">
+        <v>551</v>
+      </c>
+      <c r="C19" s="61"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="63"/>
+    </row>
+    <row r="21" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="64" t="s">
+        <v>178</v>
+      </c>
+      <c r="C21" s="65"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="62" t="s">
+        <v>553</v>
+      </c>
+      <c r="C22" s="63"/>
+    </row>
+    <row r="23" spans="2:3" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="68" t="s">
+        <v>554</v>
+      </c>
+      <c r="C23" s="69"/>
+    </row>
+    <row r="24" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="57"/>
+    </row>
+    <row r="27" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="C27" s="55"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="63"/>
+    </row>
+    <row r="29" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="C29" s="61"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="60" t="s">
-        <v>199</v>
-      </c>
-      <c r="C30" s="61"/>
-    </row>
-    <row r="31" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="60" t="s">
-        <v>200</v>
-      </c>
-      <c r="C31" s="61"/>
+      <c r="B30" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" s="63"/>
+    </row>
+    <row r="31" spans="2:3" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="64" t="s">
+        <v>555</v>
+      </c>
+      <c r="C31" s="65"/>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="58" t="s">
-        <v>204</v>
-      </c>
-      <c r="C32" s="59"/>
+      <c r="B32" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="63"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="58" t="s">
-        <v>205</v>
-      </c>
-      <c r="C33" s="59"/>
+      <c r="B33" s="60" t="s">
+        <v>556</v>
+      </c>
+      <c r="C33" s="61"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" s="58" t="s">
-        <v>206</v>
+        <v>557</v>
       </c>
       <c r="C34" s="59"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" s="58" t="s">
-        <v>207</v>
+        <v>558</v>
       </c>
       <c r="C35" s="59"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" s="58" t="s">
-        <v>208</v>
+        <v>559</v>
       </c>
       <c r="C36" s="59"/>
     </row>
-    <row r="37" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="C37" s="61"/>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="58" t="s">
+        <v>560</v>
+      </c>
+      <c r="C37" s="59"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="C38" s="57"/>
-    </row>
-    <row r="39" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="54" t="s">
-        <v>203</v>
-      </c>
-      <c r="C39" s="55"/>
+      <c r="B38" s="58" t="s">
+        <v>561</v>
+      </c>
+      <c r="C38" s="59"/>
+    </row>
+    <row r="39" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="60" t="s">
+        <v>562</v>
+      </c>
+      <c r="C39" s="61"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B40" s="62" t="s">
-        <v>326</v>
-      </c>
-      <c r="C40" s="63"/>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B41" s="60" t="s">
-        <v>328</v>
-      </c>
-      <c r="C41" s="61"/>
-    </row>
-    <row r="42" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="66" t="s">
-        <v>329</v>
-      </c>
-      <c r="C42" s="67"/>
+      <c r="B40" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="57"/>
+    </row>
+    <row r="41" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="54" t="s">
+        <v>182</v>
+      </c>
+      <c r="C41" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
+  <mergeCells count="37">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B38:C38"/>
     <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
@@ -7071,10 +7360,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C53"/>
+  <dimension ref="B1:C66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:C13"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7087,336 +7376,425 @@
     <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="10" t="s">
-        <v>210</v>
+        <v>564</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="62" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C3" s="63"/>
     </row>
     <row r="4" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="64" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="C4" s="65"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="62" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C5" s="63"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="60" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C6" s="61"/>
     </row>
     <row r="7" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="60" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C7" s="61"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="62" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C8" s="63"/>
     </row>
     <row r="9" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="64" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="C9" s="65"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="62" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C10" s="63"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="60" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="C11" s="61"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="60" t="s">
-        <v>510</v>
+        <v>471</v>
       </c>
       <c r="C12" s="61"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="60" t="s">
-        <v>511</v>
+        <v>472</v>
       </c>
       <c r="C13" s="61"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="60" t="s">
-        <v>512</v>
+        <v>473</v>
       </c>
       <c r="C14" s="61"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="60" t="s">
-        <v>513</v>
+        <v>474</v>
       </c>
       <c r="C15" s="61"/>
     </row>
     <row r="16" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="60" t="s">
-        <v>514</v>
+        <v>475</v>
       </c>
       <c r="C16" s="61"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="60" t="s">
-        <v>515</v>
+        <v>476</v>
       </c>
       <c r="C17" s="61"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="60" t="s">
-        <v>527</v>
+        <v>488</v>
       </c>
       <c r="C18" s="61"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="60" t="s">
-        <v>528</v>
+        <v>489</v>
       </c>
       <c r="C19" s="61"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="60" t="s">
-        <v>529</v>
+        <v>490</v>
       </c>
       <c r="C20" s="61"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="60" t="s">
-        <v>530</v>
+        <v>491</v>
       </c>
       <c r="C21" s="61"/>
     </row>
     <row r="22" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="64" t="s">
-        <v>531</v>
+        <v>492</v>
       </c>
       <c r="C22" s="65"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="62" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C23" s="63"/>
     </row>
     <row r="24" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="60" t="s">
-        <v>516</v>
+        <v>477</v>
       </c>
       <c r="C24" s="61"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="68" t="s">
-        <v>518</v>
-      </c>
-      <c r="C25" s="69"/>
+      <c r="B25" s="66" t="s">
+        <v>479</v>
+      </c>
+      <c r="C25" s="67"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="60" t="s">
-        <v>517</v>
+        <v>478</v>
       </c>
       <c r="C26" s="61"/>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" s="60" t="s">
-        <v>519</v>
+        <v>480</v>
       </c>
       <c r="C27" s="61"/>
     </row>
     <row r="28" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="66" t="s">
-        <v>520</v>
-      </c>
-      <c r="C28" s="67"/>
+      <c r="B28" s="68" t="s">
+        <v>481</v>
+      </c>
+      <c r="C28" s="69"/>
     </row>
     <row r="29" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="30" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="2" t="s">
-        <v>215</v>
+        <v>563</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" s="56" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C31" s="57"/>
     </row>
     <row r="32" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="54" t="s">
-        <v>216</v>
+        <v>565</v>
       </c>
       <c r="C32" s="55"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" s="62" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C33" s="63"/>
     </row>
     <row r="34" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="60" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C34" s="61"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" s="62" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C35" s="63"/>
     </row>
-    <row r="36" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:3" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="64" t="s">
-        <v>217</v>
+        <v>567</v>
       </c>
       <c r="C36" s="65"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" s="62" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C37" s="63"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" s="60" t="s">
-        <v>218</v>
+        <v>568</v>
       </c>
       <c r="C38" s="61"/>
     </row>
-    <row r="39" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="60" t="s">
-        <v>522</v>
+        <v>569</v>
       </c>
       <c r="C39" s="61"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B40" s="58" t="s">
-        <v>521</v>
-      </c>
-      <c r="C40" s="59"/>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B41" s="58" t="s">
-        <v>523</v>
-      </c>
-      <c r="C41" s="59"/>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B42" s="58" t="s">
-        <v>524</v>
-      </c>
-      <c r="C42" s="59"/>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="58" t="s">
-        <v>525</v>
-      </c>
-      <c r="C43" s="59"/>
+      <c r="B40" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="67"/>
+    </row>
+    <row r="41" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="68" t="s">
+        <v>570</v>
+      </c>
+      <c r="C41" s="69"/>
+    </row>
+    <row r="42" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="58" t="s">
-        <v>526</v>
-      </c>
-      <c r="C44" s="59"/>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="58" t="s">
-        <v>535</v>
-      </c>
-      <c r="C45" s="59"/>
+      <c r="B44" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" s="57"/>
+    </row>
+    <row r="45" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="C45" s="55"/>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="58" t="s">
-        <v>536</v>
-      </c>
-      <c r="C46" s="59"/>
-    </row>
-    <row r="47" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" s="63"/>
+    </row>
+    <row r="47" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="60" t="s">
-        <v>537</v>
+        <v>177</v>
       </c>
       <c r="C47" s="61"/>
     </row>
-    <row r="48" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="60" t="s">
-        <v>538</v>
-      </c>
-      <c r="C48" s="61"/>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B49" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="C49" s="57"/>
-    </row>
-    <row r="50" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="58" t="s">
-        <v>219</v>
-      </c>
-      <c r="C50" s="59"/>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B48" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" s="63"/>
+    </row>
+    <row r="49" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="64" t="s">
+        <v>566</v>
+      </c>
+      <c r="C49" s="65"/>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" s="63"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B51" s="68" t="s">
-        <v>532</v>
-      </c>
-      <c r="C51" s="69"/>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B51" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="C51" s="61"/>
+    </row>
+    <row r="52" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="60" t="s">
-        <v>533</v>
+        <v>483</v>
       </c>
       <c r="C52" s="61"/>
     </row>
-    <row r="53" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="66" t="s">
-        <v>534</v>
-      </c>
-      <c r="C53" s="67"/>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B53" s="58" t="s">
+        <v>482</v>
+      </c>
+      <c r="C53" s="59"/>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B54" s="58" t="s">
+        <v>484</v>
+      </c>
+      <c r="C54" s="59"/>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B55" s="58" t="s">
+        <v>485</v>
+      </c>
+      <c r="C55" s="59"/>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B56" s="58" t="s">
+        <v>486</v>
+      </c>
+      <c r="C56" s="59"/>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B57" s="58" t="s">
+        <v>487</v>
+      </c>
+      <c r="C57" s="59"/>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B58" s="58" t="s">
+        <v>496</v>
+      </c>
+      <c r="C58" s="59"/>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B59" s="58" t="s">
+        <v>497</v>
+      </c>
+      <c r="C59" s="59"/>
+    </row>
+    <row r="60" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="60" t="s">
+        <v>498</v>
+      </c>
+      <c r="C60" s="61"/>
+    </row>
+    <row r="61" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="60" t="s">
+        <v>499</v>
+      </c>
+      <c r="C61" s="61"/>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B62" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" s="57"/>
+    </row>
+    <row r="63" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="58" t="s">
+        <v>191</v>
+      </c>
+      <c r="C63" s="59"/>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B64" s="66" t="s">
+        <v>493</v>
+      </c>
+      <c r="C64" s="67"/>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B65" s="60" t="s">
+        <v>494</v>
+      </c>
+      <c r="C65" s="61"/>
+    </row>
+    <row r="66" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="68" t="s">
+        <v>495</v>
+      </c>
+      <c r="C66" s="69"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="60">
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
     <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
     <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B41:C41"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
@@ -7426,18 +7804,12 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B47:C47"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B41:C41"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B23:C23"/>
@@ -7447,6 +7819,9 @@
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7456,13 +7831,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.3"/>
@@ -7477,257 +7852,268 @@
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>411</v>
+        <v>374</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>412</v>
+        <v>375</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>413</v>
+        <v>376</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>306</v>
+        <v>276</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>414</v>
+        <v>377</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>415</v>
+        <v>378</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>410</v>
+        <v>373</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>416</v>
+        <v>379</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>417</v>
+        <v>380</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>450</v>
+        <v>411</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>451</v>
+        <v>412</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>452</v>
+        <v>413</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>453</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>419</v>
+        <v>381</v>
+      </c>
+      <c r="B15" s="73" t="s">
+        <v>382</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>420</v>
+        <v>383</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="72" t="s">
+        <v>539</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>538</v>
       </c>
     </row>
   </sheetData>

--- a/DesignDocuments/(5Team) Architecture Driver Specification_v4_1.xlsx
+++ b/DesignDocuments/(5Team) Architecture Driver Specification_v4_1.xlsx
@@ -9,27 +9,29 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="19530" windowHeight="8295" tabRatio="813" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="17280" yWindow="0" windowWidth="19530" windowHeight="8295" tabRatio="813" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="(Context)" sheetId="12" r:id="rId1"/>
-    <sheet name="(FR) 1. Manage" sheetId="2" r:id="rId2"/>
-    <sheet name="(FR) 2. Reserve a slot" sheetId="1" r:id="rId3"/>
-    <sheet name="(FR) 3. Park a car" sheetId="3" r:id="rId4"/>
-    <sheet name="(UC) Usecase" sheetId="7" r:id="rId5"/>
-    <sheet name="(UC) 1. Manage" sheetId="6" r:id="rId6"/>
-    <sheet name="(UC) 2. Reserve a slot" sheetId="8" r:id="rId7"/>
-    <sheet name="(UC) 3. Park a car" sheetId="9" r:id="rId8"/>
-    <sheet name="(QA) Quality Attributes" sheetId="10" r:id="rId9"/>
-    <sheet name="(QA) 1. Manage" sheetId="13" r:id="rId10"/>
-    <sheet name="(QA) 2. Reserve a slot" sheetId="14" r:id="rId11"/>
-    <sheet name="(QA) 3. Park a car" sheetId="15" r:id="rId12"/>
-    <sheet name="(C) Constraints" sheetId="11" r:id="rId13"/>
-    <sheet name="(Design) Elements" sheetId="16" r:id="rId14"/>
+    <sheet name="(FR) 1. Manage_detailed" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="(FR) 1. Manage" sheetId="17" r:id="rId3"/>
+    <sheet name="(FR) 2. Reserve a slot" sheetId="1" r:id="rId4"/>
+    <sheet name="(FR) 3. Park a car" sheetId="3" r:id="rId5"/>
+    <sheet name="(UC) Usecase" sheetId="7" r:id="rId6"/>
+    <sheet name="(UC) 1. Manage" sheetId="6" r:id="rId7"/>
+    <sheet name="(UC) 2. Reserve a slot" sheetId="8" r:id="rId8"/>
+    <sheet name="(UC) 3. Park a car" sheetId="9" r:id="rId9"/>
+    <sheet name="(QA) Quality Attributes" sheetId="10" r:id="rId10"/>
+    <sheet name="(QA) 1. Manage" sheetId="13" r:id="rId11"/>
+    <sheet name="(QA) 2. Reserve a slot" sheetId="14" r:id="rId12"/>
+    <sheet name="(QA) 3. Park a car" sheetId="15" r:id="rId13"/>
+    <sheet name="(C) Constraints" sheetId="11" r:id="rId14"/>
+    <sheet name="(Design) Elements" sheetId="16" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'(FR) 1. Manage'!$A$1:$E$36</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'(QA) Quality Attributes'!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'(FR) 1. Manage'!$A$1:$F$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'(FR) 1. Manage_detailed'!$A$1:$F$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'(QA) Quality Attributes'!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -213,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="572">
   <si>
     <t>FR-202</t>
   </si>
@@ -299,63 +301,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">The system should provide weekly average occupancy of selected parking lot. </t>
-  </si>
-  <si>
-    <t>The system should provide average occupancy of selected parking lot  on the day of the week.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system should provide monthly average occupancy of selected parking lot. </t>
-  </si>
-  <si>
-    <t>The system should provide sort function according to the time for the occupancy of the selected parking lot.</t>
-  </si>
-  <si>
-    <t>The system should provide the occupancy of parking space per input duration.</t>
-  </si>
-  <si>
-    <t>The system should display the parking duration of parked car.</t>
-  </si>
-  <si>
-    <t>The system should be able to reallocate the parking space for parking car.</t>
-  </si>
-  <si>
-    <t>The system should provide overtime charge rate of the selected parking lot.</t>
-  </si>
-  <si>
-    <t>The system should provide reservation time rate of the selected parking lot.</t>
-  </si>
-  <si>
-    <t>The system may set overtime charge rate of the selected parking lot.</t>
-  </si>
-  <si>
-    <t>The system may set  reservation time rate of the selected parking lot.</t>
-  </si>
-  <si>
-    <t>The system may set the time point for applying changed rate.</t>
-  </si>
-  <si>
-    <t>The system should provide attendant account.</t>
-  </si>
-  <si>
-    <t>The system should provide driver account.</t>
-  </si>
-  <si>
-    <t>The system should be deleted attendant account.</t>
-  </si>
-  <si>
-    <t>The system must give an driver account to the scheduled driver.</t>
-  </si>
-  <si>
-    <t>The system should delete the account driver that out in the parking lot.</t>
-  </si>
-  <si>
-    <t>The system should delete the driver account when driver does not appear.</t>
-  </si>
-  <si>
-    <t>The system can check the number of the selected parking slot.</t>
-  </si>
-  <si>
     <t>UC 1.1</t>
   </si>
   <si>
@@ -374,160 +319,18 @@
     <t>UC 1.6</t>
   </si>
   <si>
-    <t>FR-102</t>
-  </si>
-  <si>
-    <t>FR-103</t>
-  </si>
-  <si>
-    <t>FR-104</t>
-  </si>
-  <si>
-    <t>FR-106</t>
-  </si>
-  <si>
-    <t>FR-107</t>
-  </si>
-  <si>
-    <t>FR-108</t>
-  </si>
-  <si>
-    <t>FR-109</t>
-  </si>
-  <si>
-    <t>FR-110</t>
-  </si>
-  <si>
-    <t>FR-111</t>
-  </si>
-  <si>
-    <t>FR-112</t>
-  </si>
-  <si>
-    <t>FR-113</t>
-  </si>
-  <si>
-    <t>FR-114</t>
-  </si>
-  <si>
-    <t>FR-115</t>
-  </si>
-  <si>
-    <t>FR-116</t>
-  </si>
-  <si>
-    <t>FR-117</t>
-  </si>
-  <si>
-    <t>FR-118</t>
-  </si>
-  <si>
-    <t>FR-119</t>
-  </si>
-  <si>
-    <t>FR-120</t>
-  </si>
-  <si>
-    <t>FR-121</t>
-  </si>
-  <si>
-    <t>FR-122</t>
-  </si>
-  <si>
-    <t>FR-123</t>
-  </si>
-  <si>
-    <t>FR-124</t>
-  </si>
-  <si>
-    <t>FR-125</t>
-  </si>
-  <si>
-    <t>FR-126</t>
-  </si>
-  <si>
-    <t>FR-127</t>
-  </si>
-  <si>
-    <t>FR-128</t>
-  </si>
-  <si>
-    <t>FR-129</t>
-  </si>
-  <si>
-    <t>FR-130</t>
-  </si>
-  <si>
-    <t>FR-131</t>
-  </si>
-  <si>
     <t>FR-101</t>
   </si>
   <si>
-    <t>FR-105</t>
-  </si>
-  <si>
-    <t>- Default :  lastest 1 week (d-7~d-day)
-- period is configurable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
-    <t>- Default : lastest 1 week (d-7~d-day)
-- period is configurable</t>
-  </si>
-  <si>
     <t>Mid</t>
   </si>
   <si>
-    <t>- occupied, opened</t>
-  </si>
-  <si>
-    <t>- rounding up</t>
-  </si>
-  <si>
-    <t>reservation time rate ??</t>
-  </si>
-  <si>
-    <t>- 0 ~ 1,000$</t>
-  </si>
-  <si>
-    <t>- 100 ~ 1,000%</t>
-  </si>
-  <si>
-    <t>- 0 ~ 100%</t>
-  </si>
-  <si>
-    <t>- default : It takes effect from 0 am after 2 weeks
-- min of period is 1 week</t>
-  </si>
-  <si>
-    <t>- It was only allowed to Owner.</t>
-  </si>
-  <si>
-    <t>- It was only allowed to Owner.
-- Default : 60 min</t>
-  </si>
-  <si>
-    <t>- Owner : Reservation information(s)/Credit card(s)/Facility information/Facility Data
-- Attendant : Facility information
-- Driver : Reservation information/Credit card</t>
-  </si>
-  <si>
     <t>- Owner only</t>
   </si>
   <si>
-    <t>FR-132</t>
-  </si>
-  <si>
-    <t>FR-133</t>
-  </si>
-  <si>
-    <t>FR-135</t>
-  </si>
-  <si>
     <t>FR-302</t>
   </si>
   <si>
@@ -580,16 +383,6 @@
   </si>
   <si>
     <t>- Parking Space Identifier</t>
-  </si>
-  <si>
-    <t>- occupancy duration / slot * 24
-- period is changable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- daily/weekly/monthly
-- sort by : time, occupancy, ascending/descending</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">General use case description: </t>
@@ -1167,18 +960,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>High</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Availability</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The system should be able to add analysis applications without disrupting operations.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1215,14 +1000,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>If you add the number of parking, it should be reflected without stopping the system.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>If the parking space is deleted, it should be reflected in the system without stopping.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UC 2.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1607,75 +1384,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The system should provide the revenue of selected parking lot per specific period.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The system should provide daily average occupancy of selected parking lot.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The system shall provide half hour rate of selected parking lot.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>- default : 5$ / 30 min</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The system may set half hour rate of the selected parking lot.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The system should provide information of grace period.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The system should provide an owner account.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The system shall be able to set grace period between 0 min to  24 * 60 min.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The system shall be able to set grace period for each parking lot.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>When the grace period is changed, system should apply it within 10 seconds.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The system should be able to register the attendant account.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The system should be able to manage account-specific authorities.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The system shall be able to remove a registered parking lot.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The system shall be able to add an additional parking lot.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The system shall be able to scale out to selected parking facilities</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The system should provide the parking state per parking space.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FR-134</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The system should be able to detect whether a car is occupying 2 parking spaces.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1727,10 +1436,6 @@
   </si>
   <si>
     <t>User shall be able to reserve a parking slot easily</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2135,10 +1840,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>System shall provde the confirmation information for request.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>- the confirmation information will be a QR code.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2225,18 +1926,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Security</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>System shall store private data with encryption</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>- due to no-show until grace period
 - due to cancel request by driver</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2359,6 +2048,350 @@
   </si>
   <si>
     <t>System cancel the reservation.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System shall provde the confirmation information.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- a driver can request reservation information</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- period is fixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System should provide monthly average occupancy of selected parking lot for last 12 months.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System should provide weekly average occupancy of selected parking lot for last 12 weeks.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System should provide average occupancy of selected parking lot on the day of the week.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- for last 12 weeks or for last 12 months</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System should provide monthly revenue of selected parking lot for last 12 months.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System should provide weekly revenue of selected parking lot for last 12 weeks.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System should provide the change history of parking fee.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System should provide the change history of grace period.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- cancellation : automatically, manually</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System should be able to provide monthly average cancel rate of selected parking lot for last 12 months.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System should be able to provide weekly average cancel rate of selected parking lot for last 12 weeks.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>High</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System shall provide the current parking state for selected parking lot.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- state change shall be reflected in 3 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System should provide information of grace period.</t>
+  </si>
+  <si>
+    <t>System shall be able to set grace period for each parking lot.</t>
+  </si>
+  <si>
+    <t>System should provide an owner account.</t>
+  </si>
+  <si>
+    <t>System should provide attendant account.</t>
+  </si>
+  <si>
+    <t>System should provide driver account.</t>
+  </si>
+  <si>
+    <t>System should be able to manage account-specific authorities.</t>
+  </si>
+  <si>
+    <t>System should be able to register the attendant account.</t>
+  </si>
+  <si>
+    <t>System should be deleted attendant account.</t>
+  </si>
+  <si>
+    <t>System must give an driver account to the scheduled driver.</t>
+  </si>
+  <si>
+    <t>System should delete the account driver that out in the parking lot.</t>
+  </si>
+  <si>
+    <t>System should delete the driver account when driver does not appear.</t>
+  </si>
+  <si>
+    <t>System can check the number of the selected parking slot.</t>
+  </si>
+  <si>
+    <t>System shall be able to scale out to selected parking facilities</t>
+  </si>
+  <si>
+    <t>System shall be able to add an additional parking lot.</t>
+  </si>
+  <si>
+    <t>System shall be able to remove a registered parking lot.</t>
+  </si>
+  <si>
+    <t>System should display the parking duration of parked car.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System should reallocate the parking space for parking car.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- when driver parks a car at not-assigned parking slot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System shall provide the parking fee for every half hour of selected parking lot.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System shall set parking fee of the selected parking lot.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System should store the change history of parking fee.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC 1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System shall reflect the change of parking fee in 3 seconds.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SE-01
+SE-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SE-01
+SE-03
+SE-04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System should add statistics algorithms using collected data.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- without any system down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System should remove statistics algorithms.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SE-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System shall be able to set grace period between 0 min to  3 * 60 min.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- The owner is one and only actor who can change this value.
+- Default : 60 min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- The owner is one and only actor who can change this value.
+- 0 ~ 1,000$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When the grace period is changed, system should apply it within 3 seconds.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- Owner : Reservation information(s)/Credit card(s)/Facility information/Facility Data
+- Attendant : Facility information
+- Driver : Reservation information/Credit card</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SE-01
+SE-04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System should provide statistics information of parking lot for owner.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- default : revenue, occupancy, cancel rate and so on.
+- requested item by owner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System should be able to add new statistics algorithms using collected data.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System should be able to remove added statistics algorithms.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- without any system down
+- cannot remove default analysis algorithms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System should be able to register a new attendant account.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System should be able to delete a existing attendant account.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FR-102</t>
+  </si>
+  <si>
+    <t>FR-103</t>
+  </si>
+  <si>
+    <t>FR-104</t>
+  </si>
+  <si>
+    <t>FR-105</t>
+  </si>
+  <si>
+    <t>FR-106</t>
+  </si>
+  <si>
+    <t>FR-107</t>
+  </si>
+  <si>
+    <t>FR-108</t>
+  </si>
+  <si>
+    <t>FR-109</t>
+  </si>
+  <si>
+    <t>FR-110</t>
+  </si>
+  <si>
+    <t>FR-111</t>
+  </si>
+  <si>
+    <t>FR-112</t>
+  </si>
+  <si>
+    <t>FR-113</t>
+  </si>
+  <si>
+    <t>FR-114</t>
+  </si>
+  <si>
+    <t>FR-115</t>
+  </si>
+  <si>
+    <t>FR-116</t>
+  </si>
+  <si>
+    <t>FR-117</t>
+  </si>
+  <si>
+    <t>FR-118</t>
+  </si>
+  <si>
+    <t>FR-119</t>
+  </si>
+  <si>
+    <t>FR-120</t>
+  </si>
+  <si>
+    <t>FR-121</t>
+  </si>
+  <si>
+    <t>FR-122</t>
+  </si>
+  <si>
+    <t>FR-123</t>
+  </si>
+  <si>
+    <t>FR-124</t>
+  </si>
+  <si>
+    <t>If owner add a parking lot, it should be reflected without stopping the system.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If owner remove a parking lot, it should be reflected in the system without stopping.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Security</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System shall store private data with encryption</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QA-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QA-13 (Usability)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Driver make a reservation a parking space.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reservation UI changed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2366,7 +2399,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2438,6 +2471,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -2894,7 +2934,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3048,6 +3088,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3057,10 +3103,28 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3075,34 +3139,16 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3111,10 +3157,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3639,8 +3682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C22"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -3652,41 +3695,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="C2" s="51"/>
+      <c r="B2" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="53"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
-        <v>230</v>
+        <v>164</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>231</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="19" t="s">
-        <v>232</v>
+        <v>166</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>253</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="30" x14ac:dyDescent="0.3">
       <c r="B5" s="19" t="s">
-        <v>254</v>
+        <v>188</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>255</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="90" x14ac:dyDescent="0.3">
       <c r="B6" s="19" t="s">
-        <v>233</v>
+        <v>167</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>256</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
@@ -3694,101 +3737,101 @@
       <c r="C7" s="21"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="51" t="s">
-        <v>234</v>
-      </c>
-      <c r="C8" s="51"/>
+      <c r="B8" s="53" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="53"/>
     </row>
     <row r="9" spans="2:3" ht="105" x14ac:dyDescent="0.3">
       <c r="B9" s="19" t="s">
-        <v>257</v>
+        <v>191</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>235</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="30" x14ac:dyDescent="0.3">
       <c r="B10" s="19" t="s">
-        <v>236</v>
+        <v>170</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>237</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="52" t="s">
-        <v>238</v>
-      </c>
-      <c r="C12" s="53"/>
+      <c r="B12" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="55"/>
     </row>
     <row r="13" spans="2:3" ht="30" x14ac:dyDescent="0.3">
       <c r="B13" s="19" t="s">
-        <v>239</v>
+        <v>173</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>240</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="30" x14ac:dyDescent="0.3">
       <c r="B14" s="19" t="s">
-        <v>241</v>
+        <v>175</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="19" t="s">
-        <v>243</v>
+        <v>177</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>244</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="45" x14ac:dyDescent="0.3">
       <c r="B16" s="19" t="s">
-        <v>245</v>
+        <v>179</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>246</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="51" t="s">
-        <v>247</v>
-      </c>
-      <c r="C18" s="51"/>
+      <c r="B18" s="53" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" s="53"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="19" t="s">
-        <v>248</v>
+        <v>182</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>302</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="19" t="s">
-        <v>249</v>
+        <v>183</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>303</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="19" t="s">
-        <v>250</v>
+        <v>184</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="19" t="s">
-        <v>252</v>
+        <v>186</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>407</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -3805,10 +3848,281 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.75" style="14" customWidth="1"/>
+    <col min="4" max="4" width="85.625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>563</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>564</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B15" s="51" t="s">
+        <v>312</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C73"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -3824,55 +4138,55 @@
         <v>12</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>321</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="26" t="s">
-        <v>286</v>
+        <v>216</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
-        <v>285</v>
+        <v>215</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>322</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
-        <v>287</v>
+        <v>217</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>317</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
-        <v>288</v>
+        <v>218</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>323</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="24" t="s">
-        <v>289</v>
+        <v>219</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>324</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="25" t="s">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>325</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3883,55 +4197,55 @@
         <v>12</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>326</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="26" t="s">
-        <v>286</v>
+        <v>216</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>327</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="24" t="s">
-        <v>285</v>
+        <v>215</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>328</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="24" t="s">
-        <v>287</v>
+        <v>217</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>317</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="24" t="s">
-        <v>288</v>
+        <v>218</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>329</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="24" t="s">
-        <v>289</v>
+        <v>219</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>330</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="25" t="s">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>331</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3942,232 +4256,232 @@
         <v>12</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>332</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="26" t="s">
-        <v>286</v>
+        <v>216</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>327</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="24" t="s">
-        <v>285</v>
+        <v>215</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>333</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="24" t="s">
-        <v>287</v>
+        <v>217</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>317</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="24" t="s">
-        <v>288</v>
+        <v>218</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>329</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="24" t="s">
-        <v>289</v>
+        <v>219</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>334</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="25" t="s">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>331</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="33" t="s">
-        <v>335</v>
+        <v>265</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>336</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="35" t="s">
-        <v>337</v>
+        <v>267</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>338</v>
+        <v>268</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="35" t="s">
-        <v>339</v>
+        <v>269</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>340</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="35" t="s">
-        <v>341</v>
+        <v>271</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>342</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="35" t="s">
-        <v>233</v>
+        <v>167</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>343</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="35" t="s">
-        <v>344</v>
+        <v>274</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>345</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="35" t="s">
-        <v>346</v>
+        <v>276</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>347</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="33" t="s">
-        <v>335</v>
+        <v>265</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>348</v>
+        <v>278</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="35" t="s">
-        <v>337</v>
+        <v>267</v>
       </c>
       <c r="C35" s="36" t="s">
-        <v>349</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="35" t="s">
-        <v>339</v>
+        <v>269</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>350</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="35" t="s">
-        <v>341</v>
+        <v>271</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>351</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="35" t="s">
-        <v>233</v>
+        <v>167</v>
       </c>
       <c r="C38" s="37" t="s">
-        <v>343</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="35" t="s">
-        <v>344</v>
+        <v>274</v>
       </c>
       <c r="C39" s="36" t="s">
-        <v>352</v>
+        <v>282</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="35" t="s">
-        <v>346</v>
+        <v>276</v>
       </c>
       <c r="C40" s="37" t="s">
-        <v>353</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="42" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="33" t="s">
-        <v>335</v>
+        <v>265</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>354</v>
+        <v>284</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="35" t="s">
-        <v>337</v>
+        <v>267</v>
       </c>
       <c r="C43" s="37" t="s">
-        <v>355</v>
+        <v>285</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="35" t="s">
-        <v>339</v>
+        <v>269</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>356</v>
+        <v>286</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="35" t="s">
-        <v>341</v>
+        <v>271</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>342</v>
+        <v>272</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="35" t="s">
-        <v>233</v>
+        <v>167</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>357</v>
+        <v>287</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="70" t="s">
-        <v>344</v>
+      <c r="B47" s="72" t="s">
+        <v>274</v>
       </c>
       <c r="C47" s="38" t="s">
-        <v>358</v>
+        <v>288</v>
       </c>
     </row>
     <row r="48" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="71"/>
+      <c r="B48" s="73"/>
       <c r="C48" s="37" t="s">
-        <v>359</v>
+        <v>289</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="35" t="s">
-        <v>346</v>
+        <v>276</v>
       </c>
       <c r="C49" s="37" t="s">
-        <v>360</v>
+        <v>290</v>
       </c>
     </row>
     <row r="50" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -4176,55 +4490,55 @@
         <v>12</v>
       </c>
       <c r="C51" s="39" t="s">
-        <v>361</v>
+        <v>291</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" s="26" t="s">
-        <v>286</v>
+        <v>216</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53" s="24" t="s">
-        <v>285</v>
+        <v>215</v>
       </c>
       <c r="C53" s="41" t="s">
-        <v>362</v>
+        <v>292</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B54" s="24" t="s">
-        <v>287</v>
+        <v>217</v>
       </c>
       <c r="C54" s="41" t="s">
-        <v>342</v>
+        <v>272</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55" s="24" t="s">
-        <v>288</v>
+        <v>218</v>
       </c>
       <c r="C55" s="41" t="s">
-        <v>363</v>
+        <v>293</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B56" s="24" t="s">
-        <v>289</v>
+        <v>219</v>
       </c>
       <c r="C56" s="41" t="s">
-        <v>364</v>
+        <v>294</v>
       </c>
     </row>
     <row r="57" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="25" t="s">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="C57" s="42" t="s">
-        <v>365</v>
+        <v>295</v>
       </c>
     </row>
     <row r="58" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4236,55 +4550,55 @@
         <v>12</v>
       </c>
       <c r="C59" s="39" t="s">
-        <v>366</v>
+        <v>296</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B60" s="26" t="s">
-        <v>286</v>
+        <v>216</v>
       </c>
       <c r="C60" s="40" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B61" s="24" t="s">
-        <v>285</v>
+        <v>215</v>
       </c>
       <c r="C61" s="41" t="s">
-        <v>367</v>
+        <v>297</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B62" s="24" t="s">
-        <v>287</v>
+        <v>217</v>
       </c>
       <c r="C62" s="41" t="s">
-        <v>342</v>
+        <v>272</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B63" s="24" t="s">
-        <v>288</v>
+        <v>218</v>
       </c>
       <c r="C63" s="41" t="s">
-        <v>329</v>
+        <v>259</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B64" s="24" t="s">
-        <v>289</v>
+        <v>219</v>
       </c>
       <c r="C64" s="41" t="s">
-        <v>368</v>
+        <v>298</v>
       </c>
     </row>
     <row r="65" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B65" s="25" t="s">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="C65" s="42" t="s">
-        <v>369</v>
+        <v>299</v>
       </c>
     </row>
     <row r="66" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4296,55 +4610,55 @@
         <v>12</v>
       </c>
       <c r="C67" s="39" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B68" s="26" t="s">
-        <v>286</v>
+        <v>216</v>
       </c>
       <c r="C68" s="40" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B69" s="24" t="s">
-        <v>285</v>
+        <v>215</v>
       </c>
       <c r="C69" s="41" t="s">
-        <v>371</v>
+        <v>301</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B70" s="24" t="s">
-        <v>287</v>
+        <v>217</v>
       </c>
       <c r="C70" s="41" t="s">
-        <v>342</v>
+        <v>272</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B71" s="24" t="s">
-        <v>288</v>
+        <v>218</v>
       </c>
       <c r="C71" s="41" t="s">
-        <v>329</v>
+        <v>259</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B72" s="24" t="s">
-        <v>289</v>
+        <v>219</v>
       </c>
       <c r="C72" s="41" t="s">
-        <v>368</v>
+        <v>298</v>
       </c>
     </row>
     <row r="73" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B73" s="25" t="s">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="C73" s="42" t="s">
-        <v>369</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -4356,12 +4670,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C8"/>
+  <dimension ref="B1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4376,55 +4690,112 @@
         <v>12</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>315</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="26" t="s">
-        <v>286</v>
+        <v>216</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
-        <v>285</v>
+        <v>215</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>316</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
-        <v>287</v>
+        <v>217</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>317</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
-        <v>288</v>
+        <v>218</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>318</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="24" t="s">
-        <v>289</v>
+        <v>219</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>319</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="25" t="s">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>320</v>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -4433,11 +4804,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -4453,55 +4824,55 @@
         <v>12</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>304</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="26" t="s">
-        <v>286</v>
+        <v>216</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
-        <v>285</v>
+        <v>215</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
-        <v>287</v>
+        <v>217</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>305</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
-        <v>288</v>
+        <v>218</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>306</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="24" t="s">
-        <v>289</v>
+        <v>219</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>307</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="25" t="s">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>308</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4512,55 +4883,55 @@
         <v>12</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>309</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="26" t="s">
-        <v>286</v>
+        <v>216</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>305</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="24" t="s">
-        <v>285</v>
+        <v>215</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>310</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="24" t="s">
-        <v>287</v>
+        <v>217</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>311</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="24" t="s">
-        <v>288</v>
+        <v>218</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>312</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="24" t="s">
-        <v>289</v>
+        <v>219</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>313</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="25" t="s">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>314</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -4570,7 +4941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -4578,7 +4949,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.3"/>
@@ -4594,153 +4965,153 @@
         <v>12</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>205</v>
+        <v>139</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>206</v>
+        <v>140</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>208</v>
+        <v>142</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>220</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>209</v>
+        <v>143</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>207</v>
+        <v>141</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>207</v>
+        <v>141</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>222</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>211</v>
+        <v>145</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>207</v>
+        <v>141</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>223</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>212</v>
+        <v>146</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>207</v>
+        <v>141</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>224</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>213</v>
+        <v>147</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>214</v>
+        <v>148</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>225</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>215</v>
+        <v>149</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>214</v>
+        <v>148</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>226</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>216</v>
+        <v>150</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>214</v>
+        <v>148</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>227</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>217</v>
+        <v>151</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>214</v>
+        <v>148</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>226</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>218</v>
+        <v>152</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>214</v>
+        <v>148</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>228</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>219</v>
+        <v>153</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>214</v>
+        <v>148</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>301</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>409</v>
+        <v>322</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>214</v>
+        <v>148</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>406</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>410</v>
+        <v>323</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>214</v>
+        <v>148</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>408</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -4749,7 +5120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C7"/>
   <sheetViews>
@@ -4765,50 +5136,50 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>470</v>
+        <v>382</v>
       </c>
       <c r="C2" t="s">
-        <v>523</v>
+        <v>434</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>518</v>
+        <v>429</v>
       </c>
       <c r="C3" t="s">
-        <v>524</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>519</v>
+        <v>430</v>
       </c>
       <c r="C4" t="s">
-        <v>525</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>520</v>
+        <v>431</v>
       </c>
       <c r="C5" t="s">
-        <v>526</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>521</v>
+        <v>432</v>
       </c>
       <c r="C6" t="s">
-        <v>527</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>522</v>
+        <v>433</v>
       </c>
       <c r="C7" t="s">
-        <v>528</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -4819,610 +5190,632 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="85.625" customWidth="1"/>
-    <col min="4" max="4" width="60.5" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="85.625" customWidth="1"/>
+    <col min="5" max="5" width="60.5" customWidth="1"/>
+    <col min="6" max="6" width="10.25" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="49" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>385</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>49</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>521</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="C3" s="50" t="s">
+        <v>521</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>521</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>521</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>521</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>521</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>521</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>521</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>521</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>521</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>521</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="C13" s="50" t="s">
+        <v>522</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>522</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>521</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="C16" s="50" t="s">
+        <v>521</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>521</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>529</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>526</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>526</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="C20" s="50" t="s">
+        <v>521</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>521</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>528</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>382</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>382</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>399</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="C24" s="50" t="s">
+        <v>521</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
+      <c r="B25" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>532</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>441</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>382</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>531</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
+      <c r="B28" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="52"/>
+      <c r="D28" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
+      <c r="B29" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="52"/>
+      <c r="D29" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4"/>
+      <c r="B30" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="52"/>
+      <c r="D30" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4"/>
+      <c r="B31" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="52"/>
+      <c r="D31" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4"/>
+      <c r="B32" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="52"/>
+      <c r="D32" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4"/>
+      <c r="B33" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>401</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="45" t="s">
+      <c r="C33" s="52"/>
+      <c r="D33" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="E33" s="47" t="s">
+        <v>318</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="44" t="s">
-        <v>392</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="44" t="s">
-        <v>395</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="47" t="s">
-        <v>405</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>96</v>
-      </c>
+    </row>
+    <row r="34" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4"/>
       <c r="B34" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="46" t="s">
-        <v>398</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>403</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>400</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C34" s="52"/>
+      <c r="D34" s="46" t="s">
+        <v>510</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4"/>
       <c r="B35" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="44" t="s">
-        <v>397</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>402</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>97</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C35" s="52"/>
+      <c r="D35" s="44" t="s">
+        <v>511</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4"/>
       <c r="B36" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>404</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>81</v>
+        <v>29</v>
+      </c>
+      <c r="C36" s="52"/>
+      <c r="D36" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E36"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5431,13 +5824,523 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="85.625" customWidth="1"/>
+    <col min="5" max="5" width="60.5" customWidth="1"/>
+    <col min="6" max="6" width="10.25" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>521</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>521</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>521</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>521</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>521</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>522</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>522</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>521</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>521</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>521</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>529</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>382</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="74" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>382</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>521</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>521</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>528</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>382</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>382</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>521</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>532</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>441</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>382</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>531</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>521</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>521</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>521</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>521</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5458,7 +6361,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="49" t="s">
-        <v>438</v>
+        <v>350</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>23</v>
@@ -5478,13 +6381,13 @@
         <v>15</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>529</v>
+        <v>440</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>502</v>
+        <v>414</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>258</v>
+        <v>192</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>16</v>
@@ -5498,16 +6401,16 @@
         <v>15</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>530</v>
+        <v>441</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>505</v>
+        <v>417</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>542</v>
+        <v>450</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -5518,14 +6421,14 @@
         <v>15</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>530</v>
+        <v>441</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>506</v>
+        <v>418</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="4" t="s">
-        <v>536</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -5536,13 +6439,13 @@
         <v>15</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>530</v>
+        <v>441</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>507</v>
+        <v>419</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>503</v>
+        <v>415</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>20</v>
@@ -5556,13 +6459,13 @@
         <v>15</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>530</v>
+        <v>441</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>504</v>
+        <v>416</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>509</v>
+        <v>421</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>16</v>
@@ -5576,13 +6479,13 @@
         <v>15</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>531</v>
+        <v>442</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>511</v>
+        <v>423</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>516</v>
+        <v>427</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>16</v>
@@ -5596,13 +6499,13 @@
         <v>15</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>531</v>
+        <v>442</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>508</v>
+        <v>420</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>512</v>
+        <v>424</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>20</v>
@@ -5616,13 +6519,13 @@
         <v>15</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>531</v>
+        <v>442</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>510</v>
+        <v>422</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>513</v>
+        <v>425</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>16</v>
@@ -5636,13 +6539,13 @@
         <v>15</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>530</v>
+        <v>441</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>515</v>
+        <v>426</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>16</v>
@@ -5656,10 +6559,10 @@
         <v>15</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>529</v>
+        <v>440</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>517</v>
+        <v>428</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="4" t="s">
@@ -5674,13 +6577,13 @@
         <v>15</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>530</v>
+        <v>441</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>532</v>
+        <v>443</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>20</v>
@@ -5694,14 +6597,16 @@
         <v>21</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>530</v>
+        <v>441</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="E13" s="5"/>
+        <v>445</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>480</v>
+      </c>
       <c r="F13" s="4" t="s">
-        <v>536</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -5712,13 +6617,13 @@
         <v>21</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>530</v>
+        <v>441</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>541</v>
+        <v>449</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>540</v>
+        <v>448</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>20</v>
@@ -5731,7 +6636,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
@@ -5760,7 +6665,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="49" t="s">
-        <v>438</v>
+        <v>350</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>23</v>
@@ -5774,19 +6679,19 @@
     </row>
     <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>468</v>
+        <v>380</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>416</v>
+        <v>328</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>415</v>
+        <v>327</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>16</v>
@@ -5794,19 +6699,19 @@
     </row>
     <row r="3" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>469</v>
+        <v>381</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>430</v>
+        <v>342</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>432</v>
+        <v>344</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>18</v>
@@ -5814,19 +6719,19 @@
     </row>
     <row r="4" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>469</v>
+        <v>381</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>431</v>
+        <v>343</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>432</v>
+        <v>344</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>18</v>
@@ -5834,34 +6739,34 @@
     </row>
     <row r="5" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>469</v>
+        <v>381</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>418</v>
+        <v>330</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="4" t="s">
-        <v>500</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>470</v>
+        <v>382</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>419</v>
+        <v>331</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="4" t="s">
@@ -5870,19 +6775,19 @@
     </row>
     <row r="7" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>470</v>
+        <v>382</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>420</v>
+        <v>332</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>16</v>
@@ -5890,19 +6795,19 @@
     </row>
     <row r="8" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>468</v>
+        <v>380</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>433</v>
+        <v>345</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>417</v>
+        <v>329</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>20</v>
@@ -5910,19 +6815,19 @@
     </row>
     <row r="9" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>468</v>
+        <v>380</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>434</v>
+        <v>346</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>417</v>
+        <v>329</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>20</v>
@@ -5930,19 +6835,19 @@
     </row>
     <row r="10" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>468</v>
+        <v>380</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>435</v>
+        <v>347</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>421</v>
+        <v>333</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>20</v>
@@ -5950,19 +6855,19 @@
     </row>
     <row r="11" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>468</v>
+        <v>380</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>436</v>
+        <v>348</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>422</v>
+        <v>334</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>20</v>
@@ -5970,19 +6875,19 @@
     </row>
     <row r="12" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>470</v>
+        <v>382</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>423</v>
+        <v>335</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>424</v>
+        <v>336</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>20</v>
@@ -5990,19 +6895,19 @@
     </row>
     <row r="13" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>468</v>
+        <v>380</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>425</v>
+        <v>337</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>437</v>
+        <v>349</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>20</v>
@@ -6010,16 +6915,16 @@
     </row>
     <row r="14" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>468</v>
+        <v>380</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>426</v>
+        <v>338</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="4" t="s">
@@ -6028,19 +6933,19 @@
     </row>
     <row r="15" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>468</v>
+        <v>380</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>428</v>
+        <v>340</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>429</v>
+        <v>341</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>16</v>
@@ -6048,36 +6953,36 @@
     </row>
     <row r="16" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>468</v>
+        <v>380</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>427</v>
+        <v>339</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>429</v>
+        <v>341</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>501</v>
+        <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>468</v>
+        <v>380</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="4" t="s">
@@ -6086,16 +6991,16 @@
     </row>
     <row r="18" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>439</v>
+        <v>351</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>470</v>
+        <v>382</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>443</v>
+        <v>355</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="4" t="s">
@@ -6104,19 +7009,19 @@
     </row>
     <row r="19" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>459</v>
+        <v>371</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>446</v>
+        <v>358</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>468</v>
+        <v>380</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>442</v>
+        <v>354</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>441</v>
+        <v>353</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>20</v>
@@ -6124,19 +7029,19 @@
     </row>
     <row r="20" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>460</v>
+        <v>372</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>446</v>
+        <v>358</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>470</v>
+        <v>382</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>440</v>
+        <v>352</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>445</v>
+        <v>357</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>16</v>
@@ -6144,19 +7049,19 @@
     </row>
     <row r="21" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>461</v>
+        <v>373</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>446</v>
+        <v>358</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>468</v>
+        <v>380</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>447</v>
+        <v>359</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>458</v>
+        <v>370</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>16</v>
@@ -6164,19 +7069,19 @@
     </row>
     <row r="22" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>462</v>
+        <v>374</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>446</v>
+        <v>358</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>468</v>
+        <v>380</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>448</v>
+        <v>360</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>450</v>
+        <v>362</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>20</v>
@@ -6184,19 +7089,19 @@
     </row>
     <row r="23" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>463</v>
+        <v>375</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>446</v>
+        <v>358</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>468</v>
+        <v>380</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>449</v>
+        <v>361</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>450</v>
+        <v>362</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>20</v>
@@ -6204,19 +7109,19 @@
     </row>
     <row r="24" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>464</v>
+        <v>376</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>446</v>
+        <v>358</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>470</v>
+        <v>382</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>451</v>
+        <v>363</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>452</v>
+        <v>364</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>16</v>
@@ -6224,19 +7129,19 @@
     </row>
     <row r="25" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>465</v>
+        <v>377</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>446</v>
+        <v>358</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>470</v>
+        <v>382</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>455</v>
+        <v>367</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>456</v>
+        <v>368</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>20</v>
@@ -6244,19 +7149,19 @@
     </row>
     <row r="26" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>466</v>
+        <v>378</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>446</v>
+        <v>358</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>468</v>
+        <v>380</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>453</v>
+        <v>365</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>457</v>
+        <v>369</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>20</v>
@@ -6264,19 +7169,19 @@
     </row>
     <row r="27" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>467</v>
+        <v>379</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>446</v>
+        <v>358</v>
       </c>
       <c r="C27" s="50" t="s">
-        <v>468</v>
+        <v>380</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>454</v>
+        <v>366</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>422</v>
+        <v>334</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>20</v>
@@ -6289,7 +7194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6305,7 +7210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C108"/>
   <sheetViews>
@@ -6323,642 +7228,708 @@
     <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="56" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="57"/>
+      <c r="B3" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="65"/>
     </row>
     <row r="4" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="54" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="55"/>
+      <c r="B4" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="71"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" s="57"/>
+      <c r="B5" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="65"/>
     </row>
     <row r="6" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="C6" s="59"/>
+      <c r="B6" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="67"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="56" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" s="57"/>
+      <c r="B7" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="65"/>
     </row>
     <row r="8" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="55"/>
+      <c r="B8" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="71"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="56" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" s="57"/>
+      <c r="B9" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="65"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="59"/>
+      <c r="B10" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="67"/>
     </row>
     <row r="11" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="58" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" s="59"/>
+      <c r="B11" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="67"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="C12" s="59"/>
+      <c r="B12" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="67"/>
     </row>
     <row r="13" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="58" t="s">
-        <v>131</v>
-      </c>
-      <c r="C13" s="59"/>
+      <c r="B13" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="67"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="57"/>
+      <c r="B14" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="65"/>
     </row>
     <row r="15" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="54" t="s">
-        <v>132</v>
-      </c>
-      <c r="C15" s="55"/>
+      <c r="B15" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="71"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="56" t="s">
-        <v>293</v>
-      </c>
-      <c r="C16" s="57"/>
+      <c r="B16" s="64" t="s">
+        <v>223</v>
+      </c>
+      <c r="C16" s="65"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="58" t="s">
-        <v>294</v>
-      </c>
-      <c r="C17" s="59"/>
+      <c r="B17" s="66" t="s">
+        <v>224</v>
+      </c>
+      <c r="C17" s="67"/>
     </row>
     <row r="18" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="54" t="s">
-        <v>295</v>
-      </c>
-      <c r="C18" s="55"/>
+      <c r="B18" s="70" t="s">
+        <v>225</v>
+      </c>
+      <c r="C18" s="71"/>
     </row>
     <row r="19" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="2" t="s">
-        <v>173</v>
+        <v>107</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="56" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" s="57"/>
+      <c r="B21" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="65"/>
     </row>
     <row r="22" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="54" t="s">
-        <v>134</v>
-      </c>
-      <c r="C22" s="55"/>
+      <c r="B22" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="71"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="C23" s="57"/>
+      <c r="B23" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="65"/>
     </row>
     <row r="24" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="C24" s="59"/>
+      <c r="B24" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="67"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="56" t="s">
-        <v>120</v>
-      </c>
-      <c r="C25" s="57"/>
+      <c r="B25" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="65"/>
     </row>
     <row r="26" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" s="55"/>
+      <c r="B26" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="71"/>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="56" t="s">
-        <v>121</v>
-      </c>
-      <c r="C27" s="57"/>
+      <c r="B27" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="65"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="C28" s="59"/>
+      <c r="B28" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="67"/>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="C29" s="59"/>
+      <c r="B29" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="67"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="C30" s="59"/>
+      <c r="B30" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="67"/>
     </row>
     <row r="31" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="58" t="s">
-        <v>140</v>
-      </c>
-      <c r="C31" s="59"/>
+      <c r="B31" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="67"/>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="C32" s="57"/>
+      <c r="B32" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="65"/>
     </row>
     <row r="33" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="54" t="s">
-        <v>141</v>
-      </c>
-      <c r="C33" s="55"/>
+      <c r="B33" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="71"/>
     </row>
     <row r="34" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="2" t="s">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>142</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="56" t="s">
-        <v>118</v>
-      </c>
-      <c r="C36" s="57"/>
+      <c r="B36" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="65"/>
     </row>
     <row r="37" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="C37" s="55"/>
+      <c r="B37" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="71"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="C38" s="57"/>
+      <c r="B38" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="65"/>
     </row>
     <row r="39" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="C39" s="59"/>
+      <c r="B39" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="67"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B40" s="56" t="s">
-        <v>120</v>
-      </c>
-      <c r="C40" s="57"/>
+      <c r="B40" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="65"/>
     </row>
     <row r="41" spans="2:3" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="C41" s="55"/>
+      <c r="B41" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="71"/>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B42" s="56" t="s">
-        <v>121</v>
-      </c>
-      <c r="C42" s="57"/>
+      <c r="B42" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="65"/>
     </row>
     <row r="43" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="C43" s="59"/>
+      <c r="B43" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="67"/>
     </row>
     <row r="44" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="C44" s="59"/>
+      <c r="B44" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="67"/>
     </row>
     <row r="45" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="58" t="s">
-        <v>146</v>
-      </c>
-      <c r="C45" s="59"/>
+      <c r="B45" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="67"/>
     </row>
     <row r="46" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="58" t="s">
-        <v>291</v>
-      </c>
-      <c r="C46" s="59"/>
+      <c r="B46" s="66" t="s">
+        <v>221</v>
+      </c>
+      <c r="C46" s="67"/>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="C47" s="57"/>
+      <c r="B47" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="65"/>
     </row>
     <row r="48" spans="2:3" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="54" t="s">
-        <v>132</v>
-      </c>
-      <c r="C48" s="55"/>
+      <c r="B48" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="71"/>
     </row>
     <row r="49" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="2" t="s">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B51" s="56" t="s">
-        <v>118</v>
-      </c>
-      <c r="C51" s="57"/>
+      <c r="B51" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="65"/>
     </row>
     <row r="52" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="54" t="s">
-        <v>150</v>
-      </c>
-      <c r="C52" s="55"/>
+      <c r="B52" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="71"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B53" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="C53" s="57"/>
+      <c r="B53" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="65"/>
     </row>
     <row r="54" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="C54" s="59"/>
+      <c r="B54" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" s="67"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B55" s="56" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" s="57"/>
+      <c r="B55" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="65"/>
     </row>
     <row r="56" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="C56" s="55"/>
+      <c r="B56" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="71"/>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B57" s="56" t="s">
-        <v>121</v>
-      </c>
-      <c r="C57" s="57"/>
+      <c r="B57" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="65"/>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B58" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="C58" s="59"/>
+      <c r="B58" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" s="67"/>
     </row>
     <row r="59" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="58" t="s">
-        <v>130</v>
-      </c>
-      <c r="C59" s="59"/>
+      <c r="B59" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" s="67"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B60" s="58" t="s">
-        <v>151</v>
-      </c>
-      <c r="C60" s="59"/>
+      <c r="B60" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="67"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B61" s="58" t="s">
-        <v>152</v>
-      </c>
-      <c r="C61" s="59"/>
+      <c r="B61" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" s="67"/>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B62" s="58" t="s">
-        <v>153</v>
-      </c>
-      <c r="C62" s="59"/>
+      <c r="B62" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62" s="67"/>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B63" s="58" t="s">
-        <v>292</v>
-      </c>
-      <c r="C63" s="59"/>
+      <c r="B63" s="66" t="s">
+        <v>222</v>
+      </c>
+      <c r="C63" s="67"/>
     </row>
     <row r="64" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="58" t="s">
-        <v>154</v>
-      </c>
-      <c r="C64" s="59"/>
+      <c r="B64" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="C64" s="67"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B65" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="C65" s="57"/>
+      <c r="B65" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="C65" s="65"/>
     </row>
     <row r="66" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="54" t="s">
-        <v>132</v>
-      </c>
-      <c r="C66" s="55"/>
+      <c r="B66" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" s="71"/>
     </row>
     <row r="67" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="68" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B68" s="2" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B69" s="56" t="s">
-        <v>118</v>
-      </c>
-      <c r="C69" s="57"/>
+      <c r="B69" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" s="65"/>
     </row>
     <row r="70" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="58" t="s">
-        <v>157</v>
-      </c>
-      <c r="C70" s="59"/>
+      <c r="B70" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C70" s="67"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B71" s="66" t="s">
-        <v>119</v>
-      </c>
-      <c r="C71" s="67"/>
+      <c r="B71" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="C71" s="69"/>
     </row>
     <row r="72" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="C72" s="61"/>
+      <c r="B72" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72" s="57"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B73" s="62" t="s">
-        <v>120</v>
-      </c>
-      <c r="C73" s="63"/>
+      <c r="B73" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="C73" s="61"/>
     </row>
     <row r="74" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="C74" s="65"/>
+      <c r="B74" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="C74" s="63"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B75" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="C75" s="63"/>
+      <c r="B75" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C75" s="61"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B76" s="60" t="s">
-        <v>166</v>
-      </c>
-      <c r="C76" s="61"/>
+      <c r="B76" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="C76" s="57"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B77" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="C77" s="61"/>
+      <c r="B77" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="C77" s="57"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B78" s="60" t="s">
-        <v>160</v>
-      </c>
-      <c r="C78" s="61"/>
+      <c r="B78" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="C78" s="57"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B79" s="60" t="s">
-        <v>161</v>
-      </c>
-      <c r="C79" s="61"/>
+      <c r="B79" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="C79" s="57"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B80" s="60" t="s">
-        <v>159</v>
-      </c>
-      <c r="C80" s="61"/>
+      <c r="B80" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="C80" s="57"/>
     </row>
     <row r="81" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="60" t="s">
-        <v>162</v>
-      </c>
-      <c r="C81" s="61"/>
+      <c r="B81" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="C81" s="57"/>
     </row>
     <row r="82" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="60" t="s">
-        <v>131</v>
-      </c>
-      <c r="C82" s="61"/>
+      <c r="B82" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="C82" s="57"/>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B83" s="62" t="s">
-        <v>122</v>
-      </c>
-      <c r="C83" s="63"/>
+      <c r="B83" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="C83" s="61"/>
     </row>
     <row r="84" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="64" t="s">
-        <v>132</v>
-      </c>
-      <c r="C84" s="65"/>
+      <c r="B84" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="C84" s="63"/>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B85" s="62" t="s">
-        <v>296</v>
-      </c>
-      <c r="C85" s="63"/>
+      <c r="B85" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="C85" s="61"/>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B86" s="60" t="s">
-        <v>297</v>
-      </c>
-      <c r="C86" s="61"/>
+      <c r="B86" s="56" t="s">
+        <v>227</v>
+      </c>
+      <c r="C86" s="57"/>
     </row>
     <row r="87" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="68" t="s">
-        <v>298</v>
-      </c>
-      <c r="C87" s="69"/>
+      <c r="B87" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="C87" s="59"/>
     </row>
     <row r="88" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="89" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B89" s="2" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>164</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B90" s="56" t="s">
-        <v>118</v>
-      </c>
-      <c r="C90" s="57"/>
+      <c r="B90" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="C90" s="65"/>
     </row>
     <row r="91" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="58" t="s">
-        <v>165</v>
-      </c>
-      <c r="C91" s="59"/>
+      <c r="B91" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="C91" s="67"/>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B92" s="66" t="s">
-        <v>119</v>
-      </c>
-      <c r="C92" s="67"/>
+      <c r="B92" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="C92" s="69"/>
     </row>
     <row r="93" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="C93" s="61"/>
+      <c r="B93" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C93" s="57"/>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B94" s="62" t="s">
-        <v>120</v>
-      </c>
-      <c r="C94" s="63"/>
+      <c r="B94" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="C94" s="61"/>
     </row>
     <row r="95" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="C95" s="65"/>
+      <c r="B95" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="C95" s="63"/>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B96" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="C96" s="63"/>
+      <c r="B96" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C96" s="61"/>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B97" s="60" t="s">
-        <v>167</v>
-      </c>
-      <c r="C97" s="61"/>
+      <c r="B97" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="C97" s="57"/>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B98" s="60" t="s">
-        <v>168</v>
-      </c>
-      <c r="C98" s="61"/>
+      <c r="B98" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="C98" s="57"/>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B99" s="60" t="s">
-        <v>169</v>
-      </c>
-      <c r="C99" s="61"/>
+      <c r="B99" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="C99" s="57"/>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B100" s="60" t="s">
-        <v>170</v>
-      </c>
-      <c r="C100" s="61"/>
+      <c r="B100" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="C100" s="57"/>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B101" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="C101" s="61"/>
+      <c r="B101" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="C101" s="57"/>
     </row>
     <row r="102" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="60" t="s">
-        <v>172</v>
-      </c>
-      <c r="C102" s="61"/>
+      <c r="B102" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="C102" s="57"/>
     </row>
     <row r="103" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B103" s="60" t="s">
-        <v>131</v>
-      </c>
-      <c r="C103" s="61"/>
+      <c r="B103" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="C103" s="57"/>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B104" s="62" t="s">
-        <v>122</v>
-      </c>
-      <c r="C104" s="63"/>
+      <c r="B104" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="C104" s="61"/>
     </row>
     <row r="105" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B105" s="64" t="s">
-        <v>132</v>
-      </c>
-      <c r="C105" s="65"/>
+      <c r="B105" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="C105" s="63"/>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B106" s="62" t="s">
-        <v>296</v>
-      </c>
-      <c r="C106" s="63"/>
+      <c r="B106" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="C106" s="61"/>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B107" s="60" t="s">
-        <v>299</v>
-      </c>
-      <c r="C107" s="61"/>
+      <c r="B107" s="56" t="s">
+        <v>229</v>
+      </c>
+      <c r="C107" s="57"/>
     </row>
     <row r="108" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="68" t="s">
-        <v>300</v>
-      </c>
-      <c r="C108" s="69"/>
+      <c r="B108" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="C108" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
     <mergeCell ref="B79:C79"/>
     <mergeCell ref="B80:C80"/>
     <mergeCell ref="B81:C81"/>
@@ -6975,79 +7946,13 @@
     <mergeCell ref="B90:C90"/>
     <mergeCell ref="B91:C91"/>
     <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7056,7 +7961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C41"/>
   <sheetViews>
@@ -7074,246 +7979,266 @@
     <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="10" t="s">
-        <v>175</v>
+        <v>109</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>174</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="62" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="63"/>
+      <c r="B3" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="61"/>
     </row>
     <row r="4" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="64" t="s">
-        <v>176</v>
-      </c>
-      <c r="C4" s="65"/>
+      <c r="B4" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="63"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="62" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" s="63"/>
+      <c r="B5" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="61"/>
     </row>
     <row r="6" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="60" t="s">
-        <v>177</v>
-      </c>
-      <c r="C6" s="61"/>
+      <c r="B6" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="57"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="62" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" s="63"/>
+      <c r="B7" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="61"/>
     </row>
     <row r="8" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="64" t="s">
-        <v>555</v>
-      </c>
-      <c r="C8" s="65"/>
+      <c r="B8" s="62" t="s">
+        <v>463</v>
+      </c>
+      <c r="C8" s="63"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" s="63"/>
+      <c r="B9" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="61"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="60" t="s">
-        <v>545</v>
-      </c>
-      <c r="C10" s="61"/>
+      <c r="B10" s="56" t="s">
+        <v>453</v>
+      </c>
+      <c r="C10" s="57"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="60" t="s">
-        <v>544</v>
-      </c>
-      <c r="C11" s="61"/>
+      <c r="B11" s="56" t="s">
+        <v>452</v>
+      </c>
+      <c r="C11" s="57"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="60" t="s">
-        <v>543</v>
-      </c>
-      <c r="C12" s="61"/>
+      <c r="B12" s="56" t="s">
+        <v>451</v>
+      </c>
+      <c r="C12" s="57"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="60" t="s">
-        <v>546</v>
-      </c>
-      <c r="C13" s="61"/>
+      <c r="B13" s="56" t="s">
+        <v>454</v>
+      </c>
+      <c r="C13" s="57"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="60" t="s">
-        <v>552</v>
-      </c>
-      <c r="C14" s="61"/>
+      <c r="B14" s="56" t="s">
+        <v>460</v>
+      </c>
+      <c r="C14" s="57"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="60" t="s">
-        <v>548</v>
-      </c>
-      <c r="C15" s="61"/>
+      <c r="B15" s="56" t="s">
+        <v>456</v>
+      </c>
+      <c r="C15" s="57"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="60" t="s">
-        <v>547</v>
-      </c>
-      <c r="C16" s="61"/>
+      <c r="B16" s="56" t="s">
+        <v>455</v>
+      </c>
+      <c r="C16" s="57"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="60" t="s">
-        <v>549</v>
-      </c>
-      <c r="C17" s="61"/>
+      <c r="B17" s="56" t="s">
+        <v>457</v>
+      </c>
+      <c r="C17" s="57"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="60" t="s">
-        <v>550</v>
-      </c>
-      <c r="C18" s="61"/>
+      <c r="B18" s="56" t="s">
+        <v>458</v>
+      </c>
+      <c r="C18" s="57"/>
     </row>
     <row r="19" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="60" t="s">
-        <v>551</v>
-      </c>
-      <c r="C19" s="61"/>
+      <c r="B19" s="56" t="s">
+        <v>459</v>
+      </c>
+      <c r="C19" s="57"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="62" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="63"/>
+      <c r="B20" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="61"/>
     </row>
     <row r="21" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="64" t="s">
-        <v>178</v>
-      </c>
-      <c r="C21" s="65"/>
+      <c r="B21" s="62" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="63"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="62" t="s">
-        <v>553</v>
-      </c>
-      <c r="C22" s="63"/>
+      <c r="B22" s="60" t="s">
+        <v>461</v>
+      </c>
+      <c r="C22" s="61"/>
     </row>
     <row r="23" spans="2:3" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="68" t="s">
-        <v>554</v>
-      </c>
-      <c r="C23" s="69"/>
+      <c r="B23" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="C23" s="59"/>
     </row>
     <row r="24" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="2" t="s">
-        <v>179</v>
+        <v>113</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>180</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="56" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26" s="57"/>
+      <c r="B26" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="65"/>
     </row>
     <row r="27" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="54" t="s">
-        <v>181</v>
-      </c>
-      <c r="C27" s="55"/>
+      <c r="B27" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="71"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="62" t="s">
-        <v>119</v>
-      </c>
-      <c r="C28" s="63"/>
+      <c r="B28" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="61"/>
     </row>
     <row r="29" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="60" t="s">
-        <v>177</v>
-      </c>
-      <c r="C29" s="61"/>
+      <c r="B29" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="57"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="62" t="s">
-        <v>120</v>
-      </c>
-      <c r="C30" s="63"/>
+      <c r="B30" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="61"/>
     </row>
     <row r="31" spans="2:3" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="64" t="s">
-        <v>555</v>
-      </c>
-      <c r="C31" s="65"/>
+      <c r="B31" s="62" t="s">
+        <v>463</v>
+      </c>
+      <c r="C31" s="63"/>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="C32" s="63"/>
+      <c r="B32" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="61"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="60" t="s">
-        <v>556</v>
-      </c>
-      <c r="C33" s="61"/>
+      <c r="B33" s="56" t="s">
+        <v>464</v>
+      </c>
+      <c r="C33" s="57"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34" s="58" t="s">
-        <v>557</v>
-      </c>
-      <c r="C34" s="59"/>
+      <c r="B34" s="66" t="s">
+        <v>465</v>
+      </c>
+      <c r="C34" s="67"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35" s="58" t="s">
-        <v>558</v>
-      </c>
-      <c r="C35" s="59"/>
+      <c r="B35" s="66" t="s">
+        <v>466</v>
+      </c>
+      <c r="C35" s="67"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="58" t="s">
-        <v>559</v>
-      </c>
-      <c r="C36" s="59"/>
+      <c r="B36" s="66" t="s">
+        <v>467</v>
+      </c>
+      <c r="C36" s="67"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B37" s="58" t="s">
-        <v>560</v>
-      </c>
-      <c r="C37" s="59"/>
+      <c r="B37" s="66" t="s">
+        <v>468</v>
+      </c>
+      <c r="C37" s="67"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="58" t="s">
-        <v>561</v>
-      </c>
-      <c r="C38" s="59"/>
+      <c r="B38" s="66" t="s">
+        <v>469</v>
+      </c>
+      <c r="C38" s="67"/>
     </row>
     <row r="39" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="60" t="s">
-        <v>562</v>
-      </c>
-      <c r="C39" s="61"/>
+      <c r="B39" s="56" t="s">
+        <v>470</v>
+      </c>
+      <c r="C39" s="57"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B40" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="C40" s="57"/>
+      <c r="B40" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="65"/>
     </row>
     <row r="41" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="54" t="s">
-        <v>182</v>
-      </c>
-      <c r="C41" s="55"/>
+      <c r="B41" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="37">
     <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
@@ -7324,32 +8249,12 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B37:C37"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B19:C19"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7358,7 +8263,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C66"/>
   <sheetViews>
@@ -7376,436 +8281,398 @@
     <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="10" t="s">
-        <v>564</v>
+        <v>472</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>183</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="61"/>
+    </row>
+    <row r="4" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="63"/>
-    </row>
-    <row r="4" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="64" t="s">
-        <v>184</v>
-      </c>
-      <c r="C4" s="65"/>
+      <c r="C4" s="63"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="61"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="57"/>
+    </row>
+    <row r="7" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="57"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="61"/>
+    </row>
+    <row r="9" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="63"/>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="60" t="s">
-        <v>177</v>
-      </c>
-      <c r="C6" s="61"/>
-    </row>
-    <row r="7" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="60" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" s="61"/>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="62" t="s">
+      <c r="C9" s="63"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="61"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="C8" s="63"/>
-    </row>
-    <row r="9" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="64" t="s">
-        <v>185</v>
-      </c>
-      <c r="C9" s="65"/>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" s="63"/>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="60" t="s">
-        <v>186</v>
-      </c>
-      <c r="C11" s="61"/>
+      <c r="C11" s="57"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="60" t="s">
-        <v>471</v>
-      </c>
-      <c r="C12" s="61"/>
+      <c r="B12" s="56" t="s">
+        <v>383</v>
+      </c>
+      <c r="C12" s="57"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="60" t="s">
-        <v>472</v>
-      </c>
-      <c r="C13" s="61"/>
+      <c r="B13" s="56" t="s">
+        <v>384</v>
+      </c>
+      <c r="C13" s="57"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="60" t="s">
-        <v>473</v>
-      </c>
-      <c r="C14" s="61"/>
+      <c r="B14" s="56" t="s">
+        <v>385</v>
+      </c>
+      <c r="C14" s="57"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="60" t="s">
-        <v>474</v>
-      </c>
-      <c r="C15" s="61"/>
+      <c r="B15" s="56" t="s">
+        <v>386</v>
+      </c>
+      <c r="C15" s="57"/>
     </row>
     <row r="16" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="60" t="s">
-        <v>475</v>
-      </c>
-      <c r="C16" s="61"/>
+      <c r="B16" s="56" t="s">
+        <v>387</v>
+      </c>
+      <c r="C16" s="57"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="60" t="s">
-        <v>476</v>
-      </c>
-      <c r="C17" s="61"/>
+      <c r="B17" s="56" t="s">
+        <v>388</v>
+      </c>
+      <c r="C17" s="57"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="60" t="s">
-        <v>488</v>
-      </c>
-      <c r="C18" s="61"/>
+      <c r="B18" s="56" t="s">
+        <v>400</v>
+      </c>
+      <c r="C18" s="57"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="60" t="s">
-        <v>489</v>
-      </c>
-      <c r="C19" s="61"/>
+      <c r="B19" s="56" t="s">
+        <v>401</v>
+      </c>
+      <c r="C19" s="57"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="60" t="s">
-        <v>490</v>
-      </c>
-      <c r="C20" s="61"/>
+      <c r="B20" s="56" t="s">
+        <v>402</v>
+      </c>
+      <c r="C20" s="57"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="60" t="s">
-        <v>491</v>
-      </c>
-      <c r="C21" s="61"/>
+      <c r="B21" s="56" t="s">
+        <v>403</v>
+      </c>
+      <c r="C21" s="57"/>
     </row>
     <row r="22" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="64" t="s">
-        <v>492</v>
-      </c>
-      <c r="C22" s="65"/>
+      <c r="B22" s="62" t="s">
+        <v>404</v>
+      </c>
+      <c r="C22" s="63"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="62" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" s="63"/>
+      <c r="B23" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="61"/>
     </row>
     <row r="24" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="60" t="s">
-        <v>477</v>
-      </c>
-      <c r="C24" s="61"/>
+      <c r="B24" s="56" t="s">
+        <v>389</v>
+      </c>
+      <c r="C24" s="57"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="66" t="s">
-        <v>479</v>
-      </c>
-      <c r="C25" s="67"/>
+      <c r="B25" s="68" t="s">
+        <v>391</v>
+      </c>
+      <c r="C25" s="69"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="60" t="s">
-        <v>478</v>
-      </c>
-      <c r="C26" s="61"/>
+      <c r="B26" s="56" t="s">
+        <v>390</v>
+      </c>
+      <c r="C26" s="57"/>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="60" t="s">
-        <v>480</v>
-      </c>
-      <c r="C27" s="61"/>
+      <c r="B27" s="56" t="s">
+        <v>392</v>
+      </c>
+      <c r="C27" s="57"/>
     </row>
     <row r="28" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="68" t="s">
-        <v>481</v>
-      </c>
-      <c r="C28" s="69"/>
+      <c r="B28" s="58" t="s">
+        <v>393</v>
+      </c>
+      <c r="C28" s="59"/>
     </row>
     <row r="29" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="30" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="2" t="s">
-        <v>563</v>
+        <v>471</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>183</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B31" s="56" t="s">
-        <v>118</v>
-      </c>
-      <c r="C31" s="57"/>
+      <c r="B31" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="65"/>
     </row>
     <row r="32" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="54" t="s">
-        <v>565</v>
-      </c>
-      <c r="C32" s="55"/>
+      <c r="B32" s="70" t="s">
+        <v>473</v>
+      </c>
+      <c r="C32" s="71"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="62" t="s">
-        <v>119</v>
-      </c>
-      <c r="C33" s="63"/>
+      <c r="B33" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="61"/>
     </row>
     <row r="34" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="60" t="s">
-        <v>177</v>
-      </c>
-      <c r="C34" s="61"/>
+      <c r="B34" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="57"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35" s="62" t="s">
-        <v>120</v>
-      </c>
-      <c r="C35" s="63"/>
+      <c r="B35" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="61"/>
     </row>
     <row r="36" spans="2:3" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="64" t="s">
-        <v>567</v>
-      </c>
-      <c r="C36" s="65"/>
+      <c r="B36" s="62" t="s">
+        <v>475</v>
+      </c>
+      <c r="C36" s="63"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B37" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="C37" s="63"/>
+      <c r="B37" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="61"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="60" t="s">
-        <v>568</v>
-      </c>
-      <c r="C38" s="61"/>
+      <c r="B38" s="56" t="s">
+        <v>476</v>
+      </c>
+      <c r="C38" s="57"/>
     </row>
     <row r="39" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="60" t="s">
-        <v>569</v>
-      </c>
-      <c r="C39" s="61"/>
+      <c r="B39" s="56" t="s">
+        <v>477</v>
+      </c>
+      <c r="C39" s="57"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B40" s="66" t="s">
-        <v>122</v>
-      </c>
-      <c r="C40" s="67"/>
+      <c r="B40" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="69"/>
     </row>
     <row r="41" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="68" t="s">
-        <v>570</v>
-      </c>
-      <c r="C41" s="69"/>
+      <c r="B41" s="58" t="s">
+        <v>478</v>
+      </c>
+      <c r="C41" s="59"/>
     </row>
     <row r="42" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="43" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="2" t="s">
-        <v>188</v>
+        <v>122</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>187</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="56" t="s">
-        <v>118</v>
-      </c>
-      <c r="C44" s="57"/>
+      <c r="B44" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="65"/>
     </row>
     <row r="45" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="54" t="s">
-        <v>189</v>
-      </c>
-      <c r="C45" s="55"/>
+      <c r="B45" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="71"/>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="62" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" s="63"/>
+      <c r="B46" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="61"/>
     </row>
     <row r="47" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="60" t="s">
-        <v>177</v>
-      </c>
-      <c r="C47" s="61"/>
+      <c r="B47" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="57"/>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B48" s="62" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="63"/>
+      <c r="B48" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="61"/>
     </row>
     <row r="49" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="64" t="s">
-        <v>566</v>
-      </c>
-      <c r="C49" s="65"/>
+      <c r="B49" s="62" t="s">
+        <v>474</v>
+      </c>
+      <c r="C49" s="63"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B50" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="C50" s="63"/>
+      <c r="B50" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="61"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B51" s="60" t="s">
-        <v>190</v>
-      </c>
-      <c r="C51" s="61"/>
+      <c r="B51" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="C51" s="57"/>
     </row>
     <row r="52" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="60" t="s">
-        <v>483</v>
-      </c>
-      <c r="C52" s="61"/>
+      <c r="B52" s="56" t="s">
+        <v>395</v>
+      </c>
+      <c r="C52" s="57"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B53" s="58" t="s">
-        <v>482</v>
-      </c>
-      <c r="C53" s="59"/>
+      <c r="B53" s="66" t="s">
+        <v>394</v>
+      </c>
+      <c r="C53" s="67"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B54" s="58" t="s">
-        <v>484</v>
-      </c>
-      <c r="C54" s="59"/>
+      <c r="B54" s="66" t="s">
+        <v>396</v>
+      </c>
+      <c r="C54" s="67"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B55" s="58" t="s">
-        <v>485</v>
-      </c>
-      <c r="C55" s="59"/>
+      <c r="B55" s="66" t="s">
+        <v>397</v>
+      </c>
+      <c r="C55" s="67"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B56" s="58" t="s">
-        <v>486</v>
-      </c>
-      <c r="C56" s="59"/>
+      <c r="B56" s="66" t="s">
+        <v>398</v>
+      </c>
+      <c r="C56" s="67"/>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B57" s="58" t="s">
-        <v>487</v>
-      </c>
-      <c r="C57" s="59"/>
+      <c r="B57" s="66" t="s">
+        <v>399</v>
+      </c>
+      <c r="C57" s="67"/>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B58" s="58" t="s">
-        <v>496</v>
-      </c>
-      <c r="C58" s="59"/>
+      <c r="B58" s="66" t="s">
+        <v>408</v>
+      </c>
+      <c r="C58" s="67"/>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B59" s="58" t="s">
-        <v>497</v>
-      </c>
-      <c r="C59" s="59"/>
+      <c r="B59" s="66" t="s">
+        <v>409</v>
+      </c>
+      <c r="C59" s="67"/>
     </row>
     <row r="60" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="60" t="s">
-        <v>498</v>
-      </c>
-      <c r="C60" s="61"/>
+      <c r="B60" s="56" t="s">
+        <v>410</v>
+      </c>
+      <c r="C60" s="57"/>
     </row>
     <row r="61" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="60" t="s">
-        <v>499</v>
-      </c>
-      <c r="C61" s="61"/>
+      <c r="B61" s="56" t="s">
+        <v>411</v>
+      </c>
+      <c r="C61" s="57"/>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B62" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="C62" s="57"/>
+      <c r="B62" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" s="65"/>
     </row>
     <row r="63" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="58" t="s">
-        <v>191</v>
-      </c>
-      <c r="C63" s="59"/>
+      <c r="B63" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" s="67"/>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B64" s="66" t="s">
-        <v>493</v>
-      </c>
-      <c r="C64" s="67"/>
+      <c r="B64" s="68" t="s">
+        <v>405</v>
+      </c>
+      <c r="C64" s="69"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B65" s="60" t="s">
-        <v>494</v>
-      </c>
-      <c r="C65" s="61"/>
+      <c r="B65" s="56" t="s">
+        <v>406</v>
+      </c>
+      <c r="C65" s="57"/>
     </row>
     <row r="66" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="68" t="s">
-        <v>495</v>
-      </c>
-      <c r="C66" s="69"/>
+      <c r="B66" s="58" t="s">
+        <v>407</v>
+      </c>
+      <c r="C66" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
@@ -7816,310 +8683,53 @@
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.125" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.25" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.75" style="14" customWidth="1"/>
-    <col min="4" max="4" width="85.625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="13"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>374</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>375</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>373</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="B15" s="73" t="s">
-        <v>382</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="72" t="s">
-        <v>539</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>537</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>538</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:E1"/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/DesignDocuments/(5Team) Architecture Driver Specification_v4_1.xlsx
+++ b/DesignDocuments/(5Team) Architecture Driver Specification_v4_1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17280" yWindow="0" windowWidth="19530" windowHeight="8295" tabRatio="813" activeTab="2"/>
+    <workbookView xWindow="20160" yWindow="0" windowWidth="19530" windowHeight="8295" tabRatio="813" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="(Context)" sheetId="12" r:id="rId1"/>
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="574">
   <si>
     <t>FR-202</t>
   </si>
@@ -466,10 +466,6 @@
   </si>
   <si>
     <t>2. System display the current status of parking lot.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Repeat #3 until the end of attendent's work</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -933,9 +929,6 @@
     <t>Performance</t>
   </si>
   <si>
-    <t>The system shall be able to add new statistical algorithms without disrupting operations.</t>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1341,10 +1334,6 @@
   </si>
   <si>
     <t>System shall be able to detect arrival of driver 99% at entry/exit gate of parking lot.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The system should display statistical information within 5 seconds.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1432,10 +1421,6 @@
   </si>
   <si>
     <t>Usability</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>User shall be able to reserve a parking slot easily</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1975,10 +1960,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5. System check the availability of resevation request.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Alternate use case #6-A.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2392,6 +2373,36 @@
   </si>
   <si>
     <t>Reservation UI changed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Driver shall be able to reserve a parking slot easily</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- max value is 65535
+- without any system down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- min value is zero
+- without any system down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Repeat #3 until the end of attendant's work</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. System check the availability of reservation request.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The system should display statistics information within 5 seconds.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The system shall be able to add new statistics algorithms without disrupting operations.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2934,7 +2945,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3094,6 +3105,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3103,16 +3126,28 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3127,28 +3162,16 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3156,9 +3179,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3683,7 +3703,7 @@
   <dimension ref="B2:C22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -3695,41 +3715,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="53" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" s="53"/>
+      <c r="B2" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="57"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>164</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="30" x14ac:dyDescent="0.3">
       <c r="B5" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>188</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="90" x14ac:dyDescent="0.3">
       <c r="B6" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
@@ -3737,101 +3757,101 @@
       <c r="C7" s="21"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="53" t="s">
-        <v>168</v>
-      </c>
-      <c r="C8" s="53"/>
+      <c r="B8" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="57"/>
     </row>
     <row r="9" spans="2:3" ht="105" x14ac:dyDescent="0.3">
       <c r="B9" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="30" x14ac:dyDescent="0.3">
       <c r="B10" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="C10" s="20" t="s">
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="58" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="54" t="s">
-        <v>172</v>
-      </c>
-      <c r="C12" s="55"/>
+      <c r="C12" s="59"/>
     </row>
     <row r="13" spans="2:3" ht="30" x14ac:dyDescent="0.3">
       <c r="B13" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>173</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="30" x14ac:dyDescent="0.3">
       <c r="B14" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>175</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" s="20" t="s">
         <v>177</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="45" x14ac:dyDescent="0.3">
       <c r="B16" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="C16" s="22" t="s">
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="57" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="53" t="s">
-        <v>181</v>
-      </c>
-      <c r="C18" s="53"/>
+      <c r="C18" s="57"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" s="20" t="s">
         <v>184</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -3851,11 +3871,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.3"/>
@@ -3870,243 +3890,243 @@
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="D1" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>197</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>304</v>
+        <v>572</v>
       </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>195</v>
+        <v>573</v>
       </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>201</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>203</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>204</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>206</v>
       </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>326</v>
+        <v>567</v>
       </c>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="E16" s="4"/>
     </row>
@@ -4114,7 +4134,8 @@
   <autoFilter ref="A1:E1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4138,12 +4159,12 @@
         <v>12</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="26" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C3" s="29" t="s">
         <v>57</v>
@@ -4151,42 +4172,42 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="24" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="25" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4197,55 +4218,55 @@
         <v>12</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="26" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="24" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="24" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="24" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="24" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="25" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4256,232 +4277,232 @@
         <v>12</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="26" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="24" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="24" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="24" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="24" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="25" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="33" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="35" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="35" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="35" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="35" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="35" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="33" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="35" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C35" s="36" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="35" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="35" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C38" s="37" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="35" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C39" s="36" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="35" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C40" s="37" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="42" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="33" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="35" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C43" s="37" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="35" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="35" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C46" s="37" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B47" s="76" t="s">
+        <v>272</v>
+      </c>
+      <c r="C47" s="38" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="77"/>
+      <c r="C48" s="37" t="s">
         <v>287</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="72" t="s">
-        <v>274</v>
-      </c>
-      <c r="C47" s="38" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="73"/>
-      <c r="C48" s="37" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="35" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C49" s="37" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="50" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -4490,12 +4511,12 @@
         <v>12</v>
       </c>
       <c r="C51" s="39" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" s="26" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C52" s="40" t="s">
         <v>57</v>
@@ -4503,42 +4524,42 @@
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53" s="24" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C53" s="41" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B54" s="24" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C54" s="41" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55" s="24" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C55" s="41" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B56" s="24" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C56" s="41" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="57" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="25" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C57" s="42" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="58" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4550,12 +4571,12 @@
         <v>12</v>
       </c>
       <c r="C59" s="39" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B60" s="26" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C60" s="40" t="s">
         <v>57</v>
@@ -4563,42 +4584,42 @@
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B61" s="24" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C61" s="41" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B62" s="24" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C62" s="41" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B63" s="24" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C63" s="41" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B64" s="24" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C64" s="41" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="65" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B65" s="25" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C65" s="42" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="66" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4610,12 +4631,12 @@
         <v>12</v>
       </c>
       <c r="C67" s="39" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B68" s="26" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C68" s="40" t="s">
         <v>57</v>
@@ -4623,42 +4644,42 @@
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B69" s="24" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C69" s="41" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B70" s="24" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C70" s="41" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B71" s="24" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C71" s="41" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B72" s="24" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C72" s="41" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="73" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B73" s="25" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C73" s="42" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -4690,55 +4711,55 @@
         <v>12</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="26" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="24" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="25" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -4747,55 +4768,55 @@
         <v>12</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="26" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="24" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="24" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="24" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="24" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="25" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -4824,55 +4845,55 @@
         <v>12</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="26" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="24" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="25" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4883,55 +4904,55 @@
         <v>12</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="26" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="24" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="24" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="24" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="24" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="25" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -4965,153 +4986,153 @@
         <v>12</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>148</v>
-      </c>
       <c r="C7" s="45" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -5136,50 +5157,50 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C2" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C3" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C4" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C5" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C6" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -5217,7 +5238,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="49" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>23</v>
@@ -5237,16 +5258,16 @@
         <v>24</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -5255,16 +5276,16 @@
         <v>24</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -5273,16 +5294,16 @@
         <v>24</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -5291,14 +5312,14 @@
         <v>24</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="4" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -5307,14 +5328,14 @@
         <v>24</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="4" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -5323,16 +5344,16 @@
         <v>24</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -5341,16 +5362,16 @@
         <v>24</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>489</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -5359,16 +5380,16 @@
         <v>24</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -5377,16 +5398,16 @@
         <v>24</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -5395,16 +5416,16 @@
         <v>24</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -5413,16 +5434,16 @@
         <v>24</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -5431,16 +5452,16 @@
         <v>25</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -5449,14 +5470,14 @@
         <v>25</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="4" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -5465,16 +5486,16 @@
         <v>25</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -5483,13 +5504,13 @@
         <v>26</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>31</v>
@@ -5501,16 +5522,16 @@
         <v>26</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -5519,30 +5540,30 @@
         <v>26</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="8" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="4" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -5551,10 +5572,10 @@
         <v>27</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="8" t="s">
@@ -5567,13 +5588,13 @@
         <v>27</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>31</v>
@@ -5585,10 +5606,10 @@
         <v>27</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="8" t="s">
@@ -5601,10 +5622,10 @@
         <v>27</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="8" t="s">
@@ -5617,10 +5638,10 @@
         <v>28</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="8" t="s">
@@ -5633,10 +5654,10 @@
         <v>28</v>
       </c>
       <c r="C25" s="50" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="8" t="s">
@@ -5649,10 +5670,10 @@
         <v>28</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="8" t="s">
@@ -5665,13 +5686,13 @@
         <v>28</v>
       </c>
       <c r="C27" s="50" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>31</v>
@@ -5684,7 +5705,7 @@
       </c>
       <c r="C28" s="52"/>
       <c r="D28" s="9" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>33</v>
@@ -5700,7 +5721,7 @@
       </c>
       <c r="C29" s="52"/>
       <c r="D29" s="9" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>33</v>
@@ -5716,7 +5737,7 @@
       </c>
       <c r="C30" s="52"/>
       <c r="D30" s="9" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="8" t="s">
@@ -5730,7 +5751,7 @@
       </c>
       <c r="C31" s="52"/>
       <c r="D31" s="9" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="8" t="s">
@@ -5744,7 +5765,7 @@
       </c>
       <c r="C32" s="52"/>
       <c r="D32" s="9" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="8" t="s">
@@ -5758,10 +5779,10 @@
       </c>
       <c r="C33" s="52"/>
       <c r="D33" s="9" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="E33" s="47" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>31</v>
@@ -5774,10 +5795,10 @@
       </c>
       <c r="C34" s="52"/>
       <c r="D34" s="46" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>31</v>
@@ -5790,10 +5811,10 @@
       </c>
       <c r="C35" s="52"/>
       <c r="D35" s="44" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>31</v>
@@ -5806,10 +5827,10 @@
       </c>
       <c r="C36" s="52"/>
       <c r="D36" s="9" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>31</v>
@@ -5826,11 +5847,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5838,9 +5859,9 @@
     <col min="1" max="1" width="8.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="85.625" customWidth="1"/>
-    <col min="5" max="5" width="60.5" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="73.25" customWidth="1"/>
+    <col min="5" max="5" width="46.5" customWidth="1"/>
+    <col min="6" max="6" width="7.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -5851,7 +5872,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="49" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>23</v>
@@ -5871,13 +5892,13 @@
         <v>24</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>20</v>
@@ -5885,19 +5906,19 @@
     </row>
     <row r="3" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>20</v>
@@ -5905,79 +5926,79 @@
     </row>
     <row r="4" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="54" t="s">
+        <v>537</v>
+      </c>
+      <c r="B5" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="50" t="s">
-        <v>521</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="C5" s="55" t="s">
+        <v>516</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>530</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>519</v>
+      </c>
+      <c r="F5" s="54" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="54" t="s">
+        <v>538</v>
+      </c>
+      <c r="B6" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="50" t="s">
-        <v>521</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="C6" s="55" t="s">
+        <v>516</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>531</v>
+      </c>
+      <c r="E6" s="56" t="s">
+        <v>532</v>
+      </c>
+      <c r="F6" s="54" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>16</v>
@@ -5985,16 +6006,16 @@
     </row>
     <row r="8" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="4" t="s">
@@ -6003,19 +6024,19 @@
     </row>
     <row r="9" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>20</v>
@@ -6023,19 +6044,19 @@
     </row>
     <row r="10" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>20</v>
@@ -6043,19 +6064,19 @@
     </row>
     <row r="11" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>16</v>
@@ -6063,34 +6084,34 @@
     </row>
     <row r="12" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="E12" s="9"/>
-      <c r="F12" s="74" t="s">
+      <c r="F12" s="53" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="4" t="s">
@@ -6099,16 +6120,16 @@
     </row>
     <row r="14" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="8" t="s">
@@ -6117,19 +6138,19 @@
     </row>
     <row r="15" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>20</v>
@@ -6137,16 +6158,16 @@
     </row>
     <row r="16" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="8" t="s">
@@ -6155,16 +6176,16 @@
     </row>
     <row r="17" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="8" t="s">
@@ -6173,16 +6194,16 @@
     </row>
     <row r="18" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="8" t="s">
@@ -6191,16 +6212,16 @@
     </row>
     <row r="19" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="8" t="s">
@@ -6209,16 +6230,16 @@
     </row>
     <row r="20" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="8" t="s">
@@ -6227,19 +6248,19 @@
     </row>
     <row r="21" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>16</v>
@@ -6247,16 +6268,16 @@
     </row>
     <row r="22" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>33</v>
@@ -6267,16 +6288,16 @@
     </row>
     <row r="23" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>33</v>
@@ -6287,19 +6308,19 @@
     </row>
     <row r="24" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>315</v>
+        <v>568</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>31</v>
@@ -6307,19 +6328,19 @@
     </row>
     <row r="25" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="50" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>317</v>
+        <v>569</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>31</v>
@@ -6336,11 +6357,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6348,9 +6369,9 @@
     <col min="1" max="1" width="8.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="85.75" customWidth="1"/>
-    <col min="5" max="5" width="60.625" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="73.25" customWidth="1"/>
+    <col min="5" max="5" width="46.5" customWidth="1"/>
+    <col min="6" max="6" width="7.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -6361,7 +6382,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="49" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>23</v>
@@ -6381,13 +6402,13 @@
         <v>15</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>16</v>
@@ -6401,16 +6422,16 @@
         <v>15</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -6421,14 +6442,14 @@
         <v>15</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="4" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -6439,13 +6460,13 @@
         <v>15</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>20</v>
@@ -6459,13 +6480,13 @@
         <v>15</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>16</v>
@@ -6479,13 +6500,13 @@
         <v>15</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>423</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>427</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>16</v>
@@ -6499,13 +6520,13 @@
         <v>15</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>420</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>424</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>20</v>
@@ -6519,13 +6540,13 @@
         <v>15</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>16</v>
@@ -6539,13 +6560,13 @@
         <v>15</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>16</v>
@@ -6559,10 +6580,10 @@
         <v>15</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="4" t="s">
@@ -6577,13 +6598,13 @@
         <v>15</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>20</v>
@@ -6597,16 +6618,16 @@
         <v>21</v>
       </c>
       <c r="C13" s="50" t="s">
+        <v>437</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>445</v>
-      </c>
       <c r="E13" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -6617,13 +6638,13 @@
         <v>21</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>20</v>
@@ -6641,10 +6662,10 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A28" sqref="A28"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6665,7 +6686,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="49" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>23</v>
@@ -6685,13 +6706,13 @@
         <v>50</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>16</v>
@@ -6705,13 +6726,13 @@
         <v>50</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>18</v>
@@ -6725,13 +6746,13 @@
         <v>50</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>18</v>
@@ -6745,14 +6766,14 @@
         <v>50</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -6763,10 +6784,10 @@
         <v>50</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="4" t="s">
@@ -6781,10 +6802,10 @@
         <v>50</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>51</v>
@@ -6801,13 +6822,13 @@
         <v>50</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>20</v>
@@ -6821,13 +6842,13 @@
         <v>50</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>20</v>
@@ -6841,13 +6862,13 @@
         <v>50</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>20</v>
@@ -6861,13 +6882,13 @@
         <v>50</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>20</v>
@@ -6881,13 +6902,13 @@
         <v>50</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>20</v>
@@ -6901,13 +6922,13 @@
         <v>50</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>20</v>
@@ -6921,10 +6942,10 @@
         <v>50</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="4" t="s">
@@ -6939,13 +6960,13 @@
         <v>50</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>16</v>
@@ -6959,16 +6980,16 @@
         <v>50</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -6979,10 +7000,10 @@
         <v>50</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="4" t="s">
@@ -6991,16 +7012,16 @@
     </row>
     <row r="18" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="4" t="s">
@@ -7009,19 +7030,19 @@
     </row>
     <row r="19" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>20</v>
@@ -7029,19 +7050,19 @@
     </row>
     <row r="20" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>16</v>
@@ -7049,19 +7070,19 @@
     </row>
     <row r="21" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>16</v>
@@ -7069,19 +7090,19 @@
     </row>
     <row r="22" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>376</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="C22" s="50" t="s">
-        <v>380</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>20</v>
@@ -7089,19 +7110,19 @@
     </row>
     <row r="23" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>376</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="C23" s="50" t="s">
-        <v>380</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>20</v>
@@ -7109,19 +7130,19 @@
     </row>
     <row r="24" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>16</v>
@@ -7129,19 +7150,19 @@
     </row>
     <row r="25" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>20</v>
@@ -7149,19 +7170,19 @@
     </row>
     <row r="26" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D26" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>20</v>
@@ -7169,19 +7190,19 @@
     </row>
     <row r="27" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C27" s="50" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>20</v>
@@ -7215,7 +7236,7 @@
   <dimension ref="B1:C108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:C11"/>
+      <selection activeCell="B33" sqref="B33:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7235,701 +7256,635 @@
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="65"/>
+      <c r="C3" s="63"/>
     </row>
     <row r="4" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="71"/>
+      <c r="C4" s="61"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="65"/>
+      <c r="C5" s="63"/>
     </row>
     <row r="6" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="67"/>
+      <c r="C6" s="65"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="65"/>
+      <c r="C7" s="63"/>
     </row>
     <row r="8" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="71"/>
+      <c r="C8" s="61"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="65"/>
+      <c r="C9" s="63"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="67"/>
+      <c r="C10" s="65"/>
     </row>
     <row r="11" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="67"/>
+      <c r="C11" s="65"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="67"/>
+      <c r="C12" s="65"/>
     </row>
     <row r="13" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="67"/>
+      <c r="C13" s="65"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="65"/>
+      <c r="C14" s="63"/>
     </row>
     <row r="15" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="71"/>
+      <c r="C15" s="61"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="62" t="s">
+        <v>221</v>
+      </c>
+      <c r="C16" s="63"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="64" t="s">
+        <v>222</v>
+      </c>
+      <c r="C17" s="65"/>
+    </row>
+    <row r="18" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="C16" s="65"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="66" t="s">
-        <v>224</v>
-      </c>
-      <c r="C17" s="67"/>
-    </row>
-    <row r="18" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="70" t="s">
-        <v>225</v>
-      </c>
-      <c r="C18" s="71"/>
+      <c r="C18" s="61"/>
     </row>
     <row r="19" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="64" t="s">
+      <c r="B21" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="65"/>
+      <c r="C21" s="63"/>
     </row>
     <row r="22" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="70" t="s">
+      <c r="B22" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="71"/>
+      <c r="C22" s="61"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="64" t="s">
+      <c r="B23" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="65"/>
+      <c r="C23" s="63"/>
     </row>
     <row r="24" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="67"/>
+      <c r="C24" s="65"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="65"/>
+      <c r="C25" s="63"/>
     </row>
     <row r="26" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="70" t="s">
+      <c r="B26" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="71"/>
+      <c r="C26" s="61"/>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="64" t="s">
+      <c r="B27" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="65"/>
+      <c r="C27" s="63"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="66" t="s">
+      <c r="B28" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="67"/>
+      <c r="C28" s="65"/>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="66" t="s">
+      <c r="B29" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="67"/>
+      <c r="C29" s="65"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="66" t="s">
+      <c r="B30" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="67"/>
+      <c r="C30" s="65"/>
     </row>
     <row r="31" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="66" t="s">
+      <c r="B31" s="64" t="s">
+        <v>570</v>
+      </c>
+      <c r="C31" s="65"/>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="63"/>
+    </row>
+    <row r="33" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="67"/>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="65"/>
-    </row>
-    <row r="33" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="71"/>
+      <c r="C33" s="61"/>
     </row>
     <row r="34" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="63"/>
+    </row>
+    <row r="37" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="65"/>
-    </row>
-    <row r="37" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="70" t="s">
+      <c r="C37" s="61"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="63"/>
+    </row>
+    <row r="39" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="65"/>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="63"/>
+    </row>
+    <row r="41" spans="2:3" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="61"/>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="63"/>
+    </row>
+    <row r="43" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="65"/>
+    </row>
+    <row r="44" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="71"/>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="65"/>
-    </row>
-    <row r="39" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="66" t="s">
-        <v>57</v>
-      </c>
-      <c r="C39" s="67"/>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B40" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" s="65"/>
-    </row>
-    <row r="41" spans="2:3" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" s="71"/>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B42" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42" s="65"/>
-    </row>
-    <row r="43" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="66" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" s="67"/>
-    </row>
-    <row r="44" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="66" t="s">
+      <c r="C44" s="65"/>
+    </row>
+    <row r="45" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="C44" s="67"/>
-    </row>
-    <row r="45" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="C45" s="67"/>
+      <c r="C45" s="65"/>
     </row>
     <row r="46" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="66" t="s">
-        <v>221</v>
-      </c>
-      <c r="C46" s="67"/>
+      <c r="B46" s="64" t="s">
+        <v>219</v>
+      </c>
+      <c r="C46" s="65"/>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="64" t="s">
+      <c r="B47" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="65"/>
+      <c r="C47" s="63"/>
     </row>
     <row r="48" spans="2:3" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="70" t="s">
+      <c r="B48" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="71"/>
+      <c r="C48" s="61"/>
     </row>
     <row r="49" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C50" s="2" t="s">
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B51" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="63"/>
+    </row>
+    <row r="52" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="60" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B51" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="C51" s="65"/>
-    </row>
-    <row r="52" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="70" t="s">
+      <c r="C52" s="61"/>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B53" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="63"/>
+    </row>
+    <row r="54" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" s="65"/>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B55" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="63"/>
+    </row>
+    <row r="56" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="61"/>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B57" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="63"/>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B58" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" s="65"/>
+    </row>
+    <row r="59" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" s="65"/>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B60" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="C52" s="71"/>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B53" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="C53" s="65"/>
-    </row>
-    <row r="54" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="66" t="s">
-        <v>57</v>
-      </c>
-      <c r="C54" s="67"/>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B55" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="C55" s="65"/>
-    </row>
-    <row r="56" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="C56" s="71"/>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B57" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="C57" s="65"/>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B58" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="C58" s="67"/>
-    </row>
-    <row r="59" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="C59" s="67"/>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B60" s="66" t="s">
+      <c r="C60" s="65"/>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B61" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="C60" s="67"/>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B61" s="66" t="s">
+      <c r="C61" s="65"/>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B62" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="C61" s="67"/>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B62" s="66" t="s">
+      <c r="C62" s="65"/>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B63" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="C63" s="65"/>
+    </row>
+    <row r="64" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="C62" s="67"/>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B63" s="66" t="s">
-        <v>222</v>
-      </c>
-      <c r="C63" s="67"/>
-    </row>
-    <row r="64" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="C64" s="67"/>
+      <c r="C64" s="65"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B65" s="64" t="s">
+      <c r="B65" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="C65" s="65"/>
+      <c r="C65" s="63"/>
     </row>
     <row r="66" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="70" t="s">
+      <c r="B66" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="C66" s="71"/>
+      <c r="C66" s="61"/>
     </row>
     <row r="67" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="68" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B68" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C68" s="2" t="s">
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B69" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" s="63"/>
+    </row>
+    <row r="70" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="64" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B69" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="C69" s="65"/>
-    </row>
-    <row r="70" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="66" t="s">
+      <c r="C70" s="65"/>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B71" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="C71" s="73"/>
+    </row>
+    <row r="72" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72" s="67"/>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B73" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="C73" s="69"/>
+    </row>
+    <row r="74" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="C74" s="71"/>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B75" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="C75" s="69"/>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B76" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="C76" s="67"/>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B77" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="C70" s="67"/>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B71" s="68" t="s">
-        <v>53</v>
-      </c>
-      <c r="C71" s="69"/>
-    </row>
-    <row r="72" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="C72" s="57"/>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B73" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="C73" s="61"/>
-    </row>
-    <row r="74" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="C74" s="63"/>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B75" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="C75" s="61"/>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B76" s="56" t="s">
-        <v>100</v>
-      </c>
-      <c r="C76" s="57"/>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B77" s="56" t="s">
+      <c r="C77" s="67"/>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B78" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="C78" s="67"/>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B79" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="C79" s="67"/>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B80" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="C77" s="57"/>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B78" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="C78" s="57"/>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B79" s="56" t="s">
+      <c r="C80" s="67"/>
+    </row>
+    <row r="81" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="C79" s="57"/>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B80" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="C80" s="57"/>
-    </row>
-    <row r="81" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="C81" s="57"/>
+      <c r="C81" s="67"/>
     </row>
     <row r="82" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="56" t="s">
+      <c r="B82" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="C82" s="57"/>
+      <c r="C82" s="67"/>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B83" s="60" t="s">
+      <c r="B83" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="C83" s="61"/>
+      <c r="C83" s="69"/>
     </row>
     <row r="84" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="62" t="s">
+      <c r="B84" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="C84" s="63"/>
+      <c r="C84" s="71"/>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B85" s="60" t="s">
+      <c r="B85" s="68" t="s">
+        <v>224</v>
+      </c>
+      <c r="C85" s="69"/>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B86" s="66" t="s">
+        <v>225</v>
+      </c>
+      <c r="C86" s="67"/>
+    </row>
+    <row r="87" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B87" s="74" t="s">
         <v>226</v>
       </c>
-      <c r="C85" s="61"/>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B86" s="56" t="s">
-        <v>227</v>
-      </c>
-      <c r="C86" s="57"/>
-    </row>
-    <row r="87" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="C87" s="59"/>
+      <c r="C87" s="75"/>
     </row>
     <row r="88" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="89" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B89" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C89" s="2" t="s">
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B90" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="C90" s="63"/>
+    </row>
+    <row r="91" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B91" s="64" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B90" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="C90" s="65"/>
-    </row>
-    <row r="91" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="66" t="s">
-        <v>99</v>
-      </c>
-      <c r="C91" s="67"/>
+      <c r="C91" s="65"/>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B92" s="68" t="s">
+      <c r="B92" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="C92" s="69"/>
+      <c r="C92" s="73"/>
     </row>
     <row r="93" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="56" t="s">
+      <c r="B93" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="C93" s="57"/>
+      <c r="C93" s="67"/>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B94" s="60" t="s">
+      <c r="B94" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="C94" s="61"/>
+      <c r="C94" s="69"/>
     </row>
     <row r="95" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="62" t="s">
+      <c r="B95" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="C95" s="63"/>
+      <c r="C95" s="71"/>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B96" s="60" t="s">
+      <c r="B96" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="C96" s="61"/>
+      <c r="C96" s="69"/>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B97" s="56" t="s">
+      <c r="B97" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="C97" s="67"/>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B98" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="C97" s="57"/>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B98" s="56" t="s">
+      <c r="C98" s="67"/>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B99" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="C98" s="57"/>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B99" s="56" t="s">
+      <c r="C99" s="67"/>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B100" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="C99" s="57"/>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B100" s="56" t="s">
+      <c r="C100" s="67"/>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B101" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C100" s="57"/>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B101" s="56" t="s">
+      <c r="C101" s="67"/>
+    </row>
+    <row r="102" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="C101" s="57"/>
-    </row>
-    <row r="102" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="56" t="s">
-        <v>106</v>
-      </c>
-      <c r="C102" s="57"/>
+      <c r="C102" s="67"/>
     </row>
     <row r="103" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B103" s="56" t="s">
+      <c r="B103" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="C103" s="57"/>
+      <c r="C103" s="67"/>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B104" s="60" t="s">
+      <c r="B104" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="C104" s="61"/>
+      <c r="C104" s="69"/>
     </row>
     <row r="105" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B105" s="62" t="s">
+      <c r="B105" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="C105" s="63"/>
+      <c r="C105" s="71"/>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B106" s="60" t="s">
-        <v>226</v>
-      </c>
-      <c r="C106" s="61"/>
+      <c r="B106" s="68" t="s">
+        <v>224</v>
+      </c>
+      <c r="C106" s="69"/>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B107" s="56" t="s">
-        <v>229</v>
-      </c>
-      <c r="C107" s="57"/>
+      <c r="B107" s="66" t="s">
+        <v>227</v>
+      </c>
+      <c r="C107" s="67"/>
     </row>
     <row r="108" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="C108" s="59"/>
+      <c r="B108" s="74" t="s">
+        <v>228</v>
+      </c>
+      <c r="C108" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
     <mergeCell ref="B79:C79"/>
     <mergeCell ref="B80:C80"/>
     <mergeCell ref="B81:C81"/>
@@ -7946,13 +7901,79 @@
     <mergeCell ref="B90:C90"/>
     <mergeCell ref="B91:C91"/>
     <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7966,7 +7987,7 @@
   <dimension ref="B1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="B15" sqref="B15:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7979,252 +8000,264 @@
     <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="69"/>
+    </row>
+    <row r="4" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="61"/>
-    </row>
-    <row r="4" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="62" t="s">
+      <c r="C4" s="71"/>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="69"/>
+    </row>
+    <row r="6" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="63"/>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="61"/>
-    </row>
-    <row r="6" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="56" t="s">
+      <c r="C6" s="67"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="69"/>
+    </row>
+    <row r="8" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="70" t="s">
+        <v>458</v>
+      </c>
+      <c r="C8" s="71"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="69"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="66" t="s">
+        <v>449</v>
+      </c>
+      <c r="C10" s="67"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="66" t="s">
+        <v>448</v>
+      </c>
+      <c r="C11" s="67"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="66" t="s">
+        <v>447</v>
+      </c>
+      <c r="C12" s="67"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="66" t="s">
+        <v>450</v>
+      </c>
+      <c r="C13" s="67"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="66" t="s">
+        <v>571</v>
+      </c>
+      <c r="C14" s="67"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="66" t="s">
+        <v>452</v>
+      </c>
+      <c r="C15" s="67"/>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="66" t="s">
+        <v>451</v>
+      </c>
+      <c r="C16" s="67"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="66" t="s">
+        <v>453</v>
+      </c>
+      <c r="C17" s="67"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="66" t="s">
+        <v>454</v>
+      </c>
+      <c r="C18" s="67"/>
+    </row>
+    <row r="19" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="66" t="s">
+        <v>455</v>
+      </c>
+      <c r="C19" s="67"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="69"/>
+    </row>
+    <row r="21" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="57"/>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="61"/>
-    </row>
-    <row r="8" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="62" t="s">
-        <v>463</v>
-      </c>
-      <c r="C8" s="63"/>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="61"/>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="56" t="s">
-        <v>453</v>
-      </c>
-      <c r="C10" s="57"/>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="56" t="s">
-        <v>452</v>
-      </c>
-      <c r="C11" s="57"/>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="56" t="s">
-        <v>451</v>
-      </c>
-      <c r="C12" s="57"/>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="56" t="s">
-        <v>454</v>
-      </c>
-      <c r="C13" s="57"/>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="56" t="s">
-        <v>460</v>
-      </c>
-      <c r="C14" s="57"/>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="56" t="s">
+      <c r="C21" s="71"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="68" t="s">
         <v>456</v>
       </c>
-      <c r="C15" s="57"/>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="56" t="s">
-        <v>455</v>
-      </c>
-      <c r="C16" s="57"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="56" t="s">
+      <c r="C22" s="69"/>
+    </row>
+    <row r="23" spans="2:3" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="74" t="s">
         <v>457</v>
       </c>
-      <c r="C17" s="57"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="56" t="s">
-        <v>458</v>
-      </c>
-      <c r="C18" s="57"/>
-    </row>
-    <row r="19" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="56" t="s">
-        <v>459</v>
-      </c>
-      <c r="C19" s="57"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="61"/>
-    </row>
-    <row r="21" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="62" t="s">
-        <v>112</v>
-      </c>
-      <c r="C21" s="63"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="60" t="s">
-        <v>461</v>
-      </c>
-      <c r="C22" s="61"/>
-    </row>
-    <row r="23" spans="2:3" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="C23" s="59"/>
+      <c r="C23" s="75"/>
     </row>
     <row r="24" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C25" s="2" t="s">
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="63"/>
+    </row>
+    <row r="27" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="60" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="65"/>
-    </row>
-    <row r="27" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="70" t="s">
+      <c r="C27" s="61"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="69"/>
+    </row>
+    <row r="29" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="67"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="69"/>
+    </row>
+    <row r="31" spans="2:3" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="70" t="s">
+        <v>458</v>
+      </c>
+      <c r="C31" s="71"/>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="69"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="66" t="s">
+        <v>459</v>
+      </c>
+      <c r="C33" s="67"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="64" t="s">
+        <v>460</v>
+      </c>
+      <c r="C34" s="65"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="64" t="s">
+        <v>461</v>
+      </c>
+      <c r="C35" s="65"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="64" t="s">
+        <v>462</v>
+      </c>
+      <c r="C36" s="65"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="64" t="s">
+        <v>463</v>
+      </c>
+      <c r="C37" s="65"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="64" t="s">
+        <v>464</v>
+      </c>
+      <c r="C38" s="65"/>
+    </row>
+    <row r="39" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="66" t="s">
+        <v>465</v>
+      </c>
+      <c r="C39" s="67"/>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="63"/>
+    </row>
+    <row r="41" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="C27" s="71"/>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="61"/>
-    </row>
-    <row r="29" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="56" t="s">
-        <v>111</v>
-      </c>
-      <c r="C29" s="57"/>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="61"/>
-    </row>
-    <row r="31" spans="2:3" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="62" t="s">
-        <v>463</v>
-      </c>
-      <c r="C31" s="63"/>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="61"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="56" t="s">
-        <v>464</v>
-      </c>
-      <c r="C33" s="57"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34" s="66" t="s">
-        <v>465</v>
-      </c>
-      <c r="C34" s="67"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35" s="66" t="s">
-        <v>466</v>
-      </c>
-      <c r="C35" s="67"/>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="66" t="s">
-        <v>467</v>
-      </c>
-      <c r="C36" s="67"/>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B37" s="66" t="s">
-        <v>468</v>
-      </c>
-      <c r="C37" s="67"/>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="66" t="s">
-        <v>469</v>
-      </c>
-      <c r="C38" s="67"/>
-    </row>
-    <row r="39" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="56" t="s">
-        <v>470</v>
-      </c>
-      <c r="C39" s="57"/>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B40" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" s="65"/>
-    </row>
-    <row r="41" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="70" t="s">
-        <v>116</v>
-      </c>
-      <c r="C41" s="71"/>
+      <c r="C41" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B3:C3"/>
@@ -8233,28 +8266,16 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8267,7 +8288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C66"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B36" sqref="B36:C36"/>
     </sheetView>
   </sheetViews>
@@ -8281,398 +8302,432 @@
     <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="10" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="69"/>
+    </row>
+    <row r="4" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="70" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="61"/>
-    </row>
-    <row r="4" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="62" t="s">
+      <c r="C4" s="71"/>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="69"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="67"/>
+    </row>
+    <row r="7" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="67"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="69"/>
+    </row>
+    <row r="9" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="63"/>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="61"/>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="56" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="57"/>
-    </row>
-    <row r="7" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="57"/>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="61"/>
-    </row>
-    <row r="9" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="62" t="s">
+      <c r="C9" s="71"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="69"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="63"/>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="61"/>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="56" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" s="57"/>
+      <c r="C11" s="67"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="66" t="s">
+        <v>379</v>
+      </c>
+      <c r="C12" s="67"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="66" t="s">
+        <v>380</v>
+      </c>
+      <c r="C13" s="67"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="66" t="s">
+        <v>381</v>
+      </c>
+      <c r="C14" s="67"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="66" t="s">
+        <v>382</v>
+      </c>
+      <c r="C15" s="67"/>
+    </row>
+    <row r="16" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="66" t="s">
         <v>383</v>
       </c>
-      <c r="C12" s="57"/>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="56" t="s">
+      <c r="C16" s="67"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="66" t="s">
         <v>384</v>
       </c>
-      <c r="C13" s="57"/>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="56" t="s">
+      <c r="C17" s="67"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="66" t="s">
+        <v>396</v>
+      </c>
+      <c r="C18" s="67"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="66" t="s">
+        <v>397</v>
+      </c>
+      <c r="C19" s="67"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="66" t="s">
+        <v>398</v>
+      </c>
+      <c r="C20" s="67"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="66" t="s">
+        <v>399</v>
+      </c>
+      <c r="C21" s="67"/>
+    </row>
+    <row r="22" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="70" t="s">
+        <v>400</v>
+      </c>
+      <c r="C22" s="71"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="69"/>
+    </row>
+    <row r="24" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="66" t="s">
         <v>385</v>
       </c>
-      <c r="C14" s="57"/>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="56" t="s">
+      <c r="C24" s="67"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="72" t="s">
+        <v>387</v>
+      </c>
+      <c r="C25" s="73"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="66" t="s">
         <v>386</v>
       </c>
-      <c r="C15" s="57"/>
-    </row>
-    <row r="16" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="56" t="s">
-        <v>387</v>
-      </c>
-      <c r="C16" s="57"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="56" t="s">
+      <c r="C26" s="67"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="66" t="s">
         <v>388</v>
       </c>
-      <c r="C17" s="57"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="56" t="s">
-        <v>400</v>
-      </c>
-      <c r="C18" s="57"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="56" t="s">
-        <v>401</v>
-      </c>
-      <c r="C19" s="57"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="56" t="s">
-        <v>402</v>
-      </c>
-      <c r="C20" s="57"/>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="56" t="s">
-        <v>403</v>
-      </c>
-      <c r="C21" s="57"/>
-    </row>
-    <row r="22" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="62" t="s">
-        <v>404</v>
-      </c>
-      <c r="C22" s="63"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="61"/>
-    </row>
-    <row r="24" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="56" t="s">
+      <c r="C27" s="67"/>
+    </row>
+    <row r="28" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="74" t="s">
         <v>389</v>
       </c>
-      <c r="C24" s="57"/>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="68" t="s">
-        <v>391</v>
-      </c>
-      <c r="C25" s="69"/>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="56" t="s">
-        <v>390</v>
-      </c>
-      <c r="C26" s="57"/>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="56" t="s">
-        <v>392</v>
-      </c>
-      <c r="C27" s="57"/>
-    </row>
-    <row r="28" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="58" t="s">
-        <v>393</v>
-      </c>
-      <c r="C28" s="59"/>
+      <c r="C28" s="75"/>
     </row>
     <row r="29" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="30" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="63"/>
+    </row>
+    <row r="32" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="60" t="s">
+        <v>468</v>
+      </c>
+      <c r="C32" s="61"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="69"/>
+    </row>
+    <row r="34" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="67"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="69"/>
+    </row>
+    <row r="36" spans="2:3" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="70" t="s">
+        <v>470</v>
+      </c>
+      <c r="C36" s="71"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="69"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="66" t="s">
         <v>471</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B31" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="65"/>
-    </row>
-    <row r="32" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="70" t="s">
+      <c r="C38" s="67"/>
+    </row>
+    <row r="39" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="66" t="s">
+        <v>472</v>
+      </c>
+      <c r="C39" s="67"/>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="73"/>
+    </row>
+    <row r="41" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="74" t="s">
         <v>473</v>
       </c>
-      <c r="C32" s="71"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="61"/>
-    </row>
-    <row r="34" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="56" t="s">
-        <v>111</v>
-      </c>
-      <c r="C34" s="57"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="61"/>
-    </row>
-    <row r="36" spans="2:3" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="62" t="s">
-        <v>475</v>
-      </c>
-      <c r="C36" s="63"/>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B37" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="61"/>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="56" t="s">
-        <v>476</v>
-      </c>
-      <c r="C38" s="57"/>
-    </row>
-    <row r="39" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="56" t="s">
-        <v>477</v>
-      </c>
-      <c r="C39" s="57"/>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B40" s="68" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" s="69"/>
-    </row>
-    <row r="41" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="58" t="s">
-        <v>478</v>
-      </c>
-      <c r="C41" s="59"/>
+      <c r="C41" s="75"/>
     </row>
     <row r="42" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="43" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="63"/>
+    </row>
+    <row r="45" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" s="65"/>
-    </row>
-    <row r="45" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="70" t="s">
+      <c r="C45" s="61"/>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="69"/>
+    </row>
+    <row r="47" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" s="67"/>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B48" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="69"/>
+    </row>
+    <row r="49" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="70" t="s">
+        <v>469</v>
+      </c>
+      <c r="C49" s="71"/>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="69"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B51" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="C45" s="71"/>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="61"/>
-    </row>
-    <row r="47" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="56" t="s">
-        <v>111</v>
-      </c>
-      <c r="C47" s="57"/>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B48" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" s="61"/>
-    </row>
-    <row r="49" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="62" t="s">
-        <v>474</v>
-      </c>
-      <c r="C49" s="63"/>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B50" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="C50" s="61"/>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B51" s="56" t="s">
+      <c r="C51" s="67"/>
+    </row>
+    <row r="52" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="66" t="s">
+        <v>391</v>
+      </c>
+      <c r="C52" s="67"/>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B53" s="64" t="s">
+        <v>390</v>
+      </c>
+      <c r="C53" s="65"/>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B54" s="64" t="s">
+        <v>392</v>
+      </c>
+      <c r="C54" s="65"/>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B55" s="64" t="s">
+        <v>393</v>
+      </c>
+      <c r="C55" s="65"/>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B56" s="64" t="s">
+        <v>394</v>
+      </c>
+      <c r="C56" s="65"/>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B57" s="64" t="s">
+        <v>395</v>
+      </c>
+      <c r="C57" s="65"/>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B58" s="64" t="s">
+        <v>404</v>
+      </c>
+      <c r="C58" s="65"/>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B59" s="64" t="s">
+        <v>405</v>
+      </c>
+      <c r="C59" s="65"/>
+    </row>
+    <row r="60" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="66" t="s">
+        <v>406</v>
+      </c>
+      <c r="C60" s="67"/>
+    </row>
+    <row r="61" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="66" t="s">
+        <v>407</v>
+      </c>
+      <c r="C61" s="67"/>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B62" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" s="63"/>
+    </row>
+    <row r="63" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="C51" s="57"/>
-    </row>
-    <row r="52" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="56" t="s">
-        <v>395</v>
-      </c>
-      <c r="C52" s="57"/>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B53" s="66" t="s">
-        <v>394</v>
-      </c>
-      <c r="C53" s="67"/>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B54" s="66" t="s">
-        <v>396</v>
-      </c>
-      <c r="C54" s="67"/>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B55" s="66" t="s">
-        <v>397</v>
-      </c>
-      <c r="C55" s="67"/>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B56" s="66" t="s">
-        <v>398</v>
-      </c>
-      <c r="C56" s="67"/>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B57" s="66" t="s">
-        <v>399</v>
-      </c>
-      <c r="C57" s="67"/>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B58" s="66" t="s">
-        <v>408</v>
-      </c>
-      <c r="C58" s="67"/>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B59" s="66" t="s">
-        <v>409</v>
-      </c>
-      <c r="C59" s="67"/>
-    </row>
-    <row r="60" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="56" t="s">
-        <v>410</v>
-      </c>
-      <c r="C60" s="57"/>
-    </row>
-    <row r="61" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="56" t="s">
-        <v>411</v>
-      </c>
-      <c r="C61" s="57"/>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B62" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="C62" s="65"/>
-    </row>
-    <row r="63" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="66" t="s">
-        <v>125</v>
-      </c>
-      <c r="C63" s="67"/>
+      <c r="C63" s="65"/>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B64" s="68" t="s">
-        <v>405</v>
-      </c>
-      <c r="C64" s="69"/>
+      <c r="B64" s="72" t="s">
+        <v>401</v>
+      </c>
+      <c r="C64" s="73"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B65" s="56" t="s">
-        <v>406</v>
-      </c>
-      <c r="C65" s="57"/>
+      <c r="B65" s="66" t="s">
+        <v>402</v>
+      </c>
+      <c r="C65" s="67"/>
     </row>
     <row r="66" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="58" t="s">
-        <v>407</v>
-      </c>
-      <c r="C66" s="59"/>
+      <c r="B66" s="74" t="s">
+        <v>403</v>
+      </c>
+      <c r="C66" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
@@ -8687,46 +8742,12 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignDocuments/(5Team) Architecture Driver Specification_v4_1.xlsx
+++ b/DesignDocuments/(5Team) Architecture Driver Specification_v4_1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20160" yWindow="0" windowWidth="19530" windowHeight="8295" tabRatio="813" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="21120" yWindow="0" windowWidth="19530" windowHeight="8295" tabRatio="813" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="(Context)" sheetId="12" r:id="rId1"/>
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="577">
   <si>
     <t>FR-202</t>
   </si>
@@ -957,10 +957,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The system should be able to add analysis applications without disrupting operations.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UC 1.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -969,10 +965,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>When the system should deliver a notification to the attendant, it must be delivered within 3 seconds.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UC 1.4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -981,10 +973,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The system should be able to restrict access to each function of the account authority.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UC 1.6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1337,18 +1325,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The system should be updated within 3 second after parking/unparking the car.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>When the owner changes the any values in system, the response should arrive within 5 seconds.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The system shall provide confirmation information within 3 seconds on parking reservation complete.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Reliability</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1366,10 +1346,6 @@
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The parking system shall be available for 24 * 7 * 365 without stop</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2340,14 +2316,6 @@
     <t>FR-124</t>
   </si>
   <si>
-    <t>If owner add a parking lot, it should be reflected without stopping the system.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>If owner remove a parking lot, it should be reflected in the system without stopping.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2398,11 +2366,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The system should display statistics information within 5 seconds.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The system shall be able to add new statistics algorithms without disrupting operations.</t>
+    <t>Safety</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System should display statistics information within 5 seconds.</t>
+  </si>
+  <si>
+    <t>System shall be able to add new statistics algorithms without disrupting operations.</t>
+  </si>
+  <si>
+    <t>System should be able to add analysis applications without disrupting operations.</t>
+  </si>
+  <si>
+    <t>When System should deliver a notification to the attendant, it must be delivered within 3 seconds.</t>
+  </si>
+  <si>
+    <t>System should be updated within 3 second after parking/unparking the car.</t>
+  </si>
+  <si>
+    <t>System should be able to restrict access to each function of the account authority.</t>
+  </si>
+  <si>
+    <t>If owner add a parking lot, it should be reflected without stopping System.</t>
+  </si>
+  <si>
+    <t>If owner remove a parking lot, it should be reflected in System without stopping.</t>
+  </si>
+  <si>
+    <t>System shall provide confirmation information within 3 seconds on parking reservation complete.</t>
+  </si>
+  <si>
+    <t>System shall be available for 24 * 7 * 365 without stop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System shall not make any harm to people involved in this system.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QA-16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3126,10 +3129,28 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3144,34 +3165,16 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3827,7 +3830,7 @@
         <v>181</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
@@ -3835,7 +3838,7 @@
         <v>182</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
@@ -3851,7 +3854,7 @@
         <v>185</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -3869,13 +3872,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.3"/>
@@ -3916,7 +3919,7 @@
         <v>193</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="E2" s="4"/>
     </row>
@@ -3931,7 +3934,7 @@
         <v>200</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -3946,7 +3949,7 @@
         <v>200</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>201</v>
+        <v>567</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -3955,13 +3958,13 @@
         <v>127</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="D5" s="15" t="s">
-        <v>204</v>
+        <v>568</v>
       </c>
       <c r="E5" s="4"/>
     </row>
@@ -3970,13 +3973,13 @@
         <v>128</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="D6" s="15" t="s">
-        <v>302</v>
+        <v>569</v>
       </c>
       <c r="E6" s="4"/>
     </row>
@@ -3985,13 +3988,13 @@
         <v>129</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E7" s="4"/>
     </row>
@@ -4000,13 +4003,13 @@
         <v>130</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>136</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>207</v>
+        <v>570</v>
       </c>
       <c r="E8" s="4"/>
     </row>
@@ -4015,13 +4018,13 @@
         <v>131</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>558</v>
+        <v>571</v>
       </c>
       <c r="E9" s="4"/>
     </row>
@@ -4030,13 +4033,13 @@
         <v>132</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
       <c r="E10" s="4"/>
     </row>
@@ -4045,13 +4048,13 @@
         <v>133</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>304</v>
+        <v>573</v>
       </c>
       <c r="E11" s="4"/>
     </row>
@@ -4060,13 +4063,13 @@
         <v>134</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E12" s="4"/>
     </row>
@@ -4075,60 +4078,71 @@
         <v>135</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>200</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>310</v>
+        <v>574</v>
       </c>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>576</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>575</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1"/>
@@ -4159,12 +4173,12 @@
         <v>12</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C3" s="29" t="s">
         <v>57</v>
@@ -4172,42 +4186,42 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="24" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="25" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4218,55 +4232,55 @@
         <v>12</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="24" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="24" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="24" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="24" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="25" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4277,88 +4291,88 @@
         <v>12</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="24" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="24" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="24" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="24" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="25" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="33" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="35" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="35" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="35" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4366,56 +4380,56 @@
         <v>166</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="35" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="35" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="33" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="35" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C35" s="36" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="35" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="35" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4423,56 +4437,56 @@
         <v>166</v>
       </c>
       <c r="C38" s="37" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="35" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C39" s="36" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="35" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C40" s="37" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="42" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="33" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="35" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C43" s="37" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="35" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="35" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4480,29 +4494,29 @@
         <v>166</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B47" s="76" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C47" s="38" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="48" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="77"/>
       <c r="C48" s="37" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="35" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C49" s="37" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="50" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -4511,12 +4525,12 @@
         <v>12</v>
       </c>
       <c r="C51" s="39" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C52" s="40" t="s">
         <v>57</v>
@@ -4524,42 +4538,42 @@
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53" s="24" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C53" s="41" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B54" s="24" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C54" s="41" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55" s="24" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C55" s="41" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B56" s="24" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C56" s="41" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="57" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="25" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C57" s="42" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="58" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4571,12 +4585,12 @@
         <v>12</v>
       </c>
       <c r="C59" s="39" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B60" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C60" s="40" t="s">
         <v>57</v>
@@ -4584,42 +4598,42 @@
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B61" s="24" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C61" s="41" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B62" s="24" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C62" s="41" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B63" s="24" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C63" s="41" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B64" s="24" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C64" s="41" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="65" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B65" s="25" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C65" s="42" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="66" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4631,12 +4645,12 @@
         <v>12</v>
       </c>
       <c r="C67" s="39" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B68" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C68" s="40" t="s">
         <v>57</v>
@@ -4644,42 +4658,42 @@
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B69" s="24" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C69" s="41" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B70" s="24" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C70" s="41" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B71" s="24" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C71" s="41" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B72" s="24" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C72" s="41" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="73" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B73" s="25" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C73" s="42" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -4711,12 +4725,12 @@
         <v>12</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C3" s="29" t="s">
         <v>110</v>
@@ -4724,42 +4738,42 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="24" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="25" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -4768,12 +4782,12 @@
         <v>12</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>110</v>
@@ -4781,42 +4795,42 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="24" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="24" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="24" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="24" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="25" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -4845,12 +4859,12 @@
         <v>12</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C3" s="29" t="s">
         <v>110</v>
@@ -4858,42 +4872,42 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="24" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="25" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4904,55 +4918,55 @@
         <v>12</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="24" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="24" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="24" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="24" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="25" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -5110,29 +5124,29 @@
         <v>147</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>147</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>147</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -5157,50 +5171,50 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C2" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>419</v>
+      </c>
+      <c r="C3" t="s">
         <v>425</v>
-      </c>
-      <c r="C3" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C4" t="s">
         <v>426</v>
-      </c>
-      <c r="C4" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>421</v>
+      </c>
+      <c r="C5" t="s">
         <v>427</v>
-      </c>
-      <c r="C5" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C6" t="s">
         <v>428</v>
-      </c>
-      <c r="C6" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
+        <v>423</v>
+      </c>
+      <c r="C7" t="s">
         <v>429</v>
-      </c>
-      <c r="C7" t="s">
-        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -5238,7 +5252,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="49" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>23</v>
@@ -5258,16 +5272,16 @@
         <v>24</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -5276,16 +5290,16 @@
         <v>24</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -5294,16 +5308,16 @@
         <v>24</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -5312,14 +5326,14 @@
         <v>24</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="4" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -5328,14 +5342,14 @@
         <v>24</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="4" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -5344,16 +5358,16 @@
         <v>24</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>483</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -5362,16 +5376,16 @@
         <v>24</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -5380,16 +5394,16 @@
         <v>24</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -5398,16 +5412,16 @@
         <v>24</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -5416,16 +5430,16 @@
         <v>24</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -5434,16 +5448,16 @@
         <v>24</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -5452,16 +5466,16 @@
         <v>25</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -5470,14 +5484,14 @@
         <v>25</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="4" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -5486,16 +5500,16 @@
         <v>25</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -5504,13 +5518,13 @@
         <v>26</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>31</v>
@@ -5522,16 +5536,16 @@
         <v>26</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -5540,30 +5554,30 @@
         <v>26</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="8" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="4" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -5572,10 +5586,10 @@
         <v>27</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="8" t="s">
@@ -5588,13 +5602,13 @@
         <v>27</v>
       </c>
       <c r="C21" s="50" t="s">
+        <v>510</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>522</v>
-      </c>
       <c r="E21" s="23" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>31</v>
@@ -5606,10 +5620,10 @@
         <v>27</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="8" t="s">
@@ -5622,10 +5636,10 @@
         <v>27</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="8" t="s">
@@ -5638,10 +5652,10 @@
         <v>28</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="8" t="s">
@@ -5654,10 +5668,10 @@
         <v>28</v>
       </c>
       <c r="C25" s="50" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="8" t="s">
@@ -5670,10 +5684,10 @@
         <v>28</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="8" t="s">
@@ -5686,13 +5700,13 @@
         <v>28</v>
       </c>
       <c r="C27" s="50" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>31</v>
@@ -5705,7 +5719,7 @@
       </c>
       <c r="C28" s="52"/>
       <c r="D28" s="9" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>33</v>
@@ -5721,7 +5735,7 @@
       </c>
       <c r="C29" s="52"/>
       <c r="D29" s="9" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>33</v>
@@ -5737,7 +5751,7 @@
       </c>
       <c r="C30" s="52"/>
       <c r="D30" s="9" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="8" t="s">
@@ -5751,7 +5765,7 @@
       </c>
       <c r="C31" s="52"/>
       <c r="D31" s="9" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="8" t="s">
@@ -5765,7 +5779,7 @@
       </c>
       <c r="C32" s="52"/>
       <c r="D32" s="9" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="8" t="s">
@@ -5779,10 +5793,10 @@
       </c>
       <c r="C33" s="52"/>
       <c r="D33" s="9" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="E33" s="47" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>31</v>
@@ -5795,10 +5809,10 @@
       </c>
       <c r="C34" s="52"/>
       <c r="D34" s="46" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>31</v>
@@ -5811,10 +5825,10 @@
       </c>
       <c r="C35" s="52"/>
       <c r="D35" s="44" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>31</v>
@@ -5827,10 +5841,10 @@
       </c>
       <c r="C36" s="52"/>
       <c r="D36" s="9" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>31</v>
@@ -5872,7 +5886,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="49" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>23</v>
@@ -5892,13 +5906,13 @@
         <v>24</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>20</v>
@@ -5906,19 +5920,19 @@
     </row>
     <row r="3" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>20</v>
@@ -5926,19 +5940,19 @@
     </row>
     <row r="4" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>20</v>
@@ -5946,19 +5960,19 @@
     </row>
     <row r="5" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="54" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="B5" s="54" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="E5" s="56" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="F5" s="54" t="s">
         <v>20</v>
@@ -5966,19 +5980,19 @@
     </row>
     <row r="6" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="54" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="B6" s="54" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="E6" s="56" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="F6" s="54" t="s">
         <v>18</v>
@@ -5986,19 +6000,19 @@
     </row>
     <row r="7" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>16</v>
@@ -6006,16 +6020,16 @@
     </row>
     <row r="8" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="4" t="s">
@@ -6024,19 +6038,19 @@
     </row>
     <row r="9" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>20</v>
@@ -6044,19 +6058,19 @@
     </row>
     <row r="10" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>20</v>
@@ -6064,19 +6078,19 @@
     </row>
     <row r="11" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>16</v>
@@ -6084,16 +6098,16 @@
     </row>
     <row r="12" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="53" t="s">
@@ -6102,16 +6116,16 @@
     </row>
     <row r="13" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="4" t="s">
@@ -6120,16 +6134,16 @@
     </row>
     <row r="14" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="8" t="s">
@@ -6138,19 +6152,19 @@
     </row>
     <row r="15" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="50" t="s">
+        <v>510</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>522</v>
-      </c>
       <c r="E15" s="23" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>20</v>
@@ -6158,16 +6172,16 @@
     </row>
     <row r="16" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="8" t="s">
@@ -6176,16 +6190,16 @@
     </row>
     <row r="17" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="8" t="s">
@@ -6194,16 +6208,16 @@
     </row>
     <row r="18" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="8" t="s">
@@ -6212,16 +6226,16 @@
     </row>
     <row r="19" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="8" t="s">
@@ -6230,16 +6244,16 @@
     </row>
     <row r="20" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="8" t="s">
@@ -6248,19 +6262,19 @@
     </row>
     <row r="21" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>16</v>
@@ -6268,16 +6282,16 @@
     </row>
     <row r="22" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>33</v>
@@ -6288,16 +6302,16 @@
     </row>
     <row r="23" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>33</v>
@@ -6308,19 +6322,19 @@
     </row>
     <row r="24" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>31</v>
@@ -6328,19 +6342,19 @@
     </row>
     <row r="25" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="50" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>31</v>
@@ -6382,7 +6396,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="49" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>23</v>
@@ -6402,10 +6416,10 @@
         <v>15</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>191</v>
@@ -6422,16 +6436,16 @@
         <v>15</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -6442,14 +6456,14 @@
         <v>15</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="4" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -6460,13 +6474,13 @@
         <v>15</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>20</v>
@@ -6480,13 +6494,13 @@
         <v>15</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>16</v>
@@ -6500,13 +6514,13 @@
         <v>15</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>16</v>
@@ -6520,13 +6534,13 @@
         <v>15</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>20</v>
@@ -6540,13 +6554,13 @@
         <v>15</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>16</v>
@@ -6560,13 +6574,13 @@
         <v>15</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>16</v>
@@ -6580,10 +6594,10 @@
         <v>15</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="4" t="s">
@@ -6598,13 +6612,13 @@
         <v>15</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>20</v>
@@ -6618,16 +6632,16 @@
         <v>21</v>
       </c>
       <c r="C13" s="50" t="s">
+        <v>431</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>437</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -6638,13 +6652,13 @@
         <v>21</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>20</v>
@@ -6686,7 +6700,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="49" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>23</v>
@@ -6706,13 +6720,13 @@
         <v>50</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>16</v>
@@ -6726,13 +6740,13 @@
         <v>50</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>18</v>
@@ -6746,13 +6760,13 @@
         <v>50</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>18</v>
@@ -6766,14 +6780,14 @@
         <v>50</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="4" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -6784,10 +6798,10 @@
         <v>50</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="4" t="s">
@@ -6802,10 +6816,10 @@
         <v>50</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>51</v>
@@ -6822,13 +6836,13 @@
         <v>50</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>20</v>
@@ -6842,13 +6856,13 @@
         <v>50</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>20</v>
@@ -6862,13 +6876,13 @@
         <v>50</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>20</v>
@@ -6882,13 +6896,13 @@
         <v>50</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>20</v>
@@ -6902,13 +6916,13 @@
         <v>50</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>20</v>
@@ -6922,13 +6936,13 @@
         <v>50</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>20</v>
@@ -6942,10 +6956,10 @@
         <v>50</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="4" t="s">
@@ -6960,13 +6974,13 @@
         <v>50</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>16</v>
@@ -6980,16 +6994,16 @@
         <v>50</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -7000,10 +7014,10 @@
         <v>50</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="4" t="s">
@@ -7012,16 +7026,16 @@
     </row>
     <row r="18" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="4" t="s">
@@ -7030,19 +7044,19 @@
     </row>
     <row r="19" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>20</v>
@@ -7050,19 +7064,19 @@
     </row>
     <row r="20" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>16</v>
@@ -7070,19 +7084,19 @@
     </row>
     <row r="21" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>16</v>
@@ -7090,19 +7104,19 @@
     </row>
     <row r="22" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C22" s="50" t="s">
         <v>370</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="C22" s="50" t="s">
-        <v>376</v>
-      </c>
       <c r="D22" s="5" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>20</v>
@@ -7110,19 +7124,19 @@
     </row>
     <row r="23" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>20</v>
@@ -7130,19 +7144,19 @@
     </row>
     <row r="24" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="D24" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>354</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>360</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>16</v>
@@ -7150,19 +7164,19 @@
     </row>
     <row r="25" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>20</v>
@@ -7170,19 +7184,19 @@
     </row>
     <row r="26" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>20</v>
@@ -7190,19 +7204,19 @@
     </row>
     <row r="27" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C27" s="50" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>20</v>
@@ -7256,100 +7270,100 @@
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="63"/>
+      <c r="C3" s="69"/>
     </row>
     <row r="4" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="61"/>
+      <c r="C4" s="75"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="63"/>
+      <c r="C5" s="69"/>
     </row>
     <row r="6" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="65"/>
+      <c r="C6" s="71"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="63"/>
+      <c r="C7" s="69"/>
     </row>
     <row r="8" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="75"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="63"/>
+      <c r="C9" s="69"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="65"/>
+      <c r="C10" s="71"/>
     </row>
     <row r="11" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="65"/>
+      <c r="C11" s="71"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="65"/>
+      <c r="C12" s="71"/>
     </row>
     <row r="13" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="65"/>
+      <c r="C13" s="71"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="63"/>
+      <c r="C14" s="69"/>
     </row>
     <row r="15" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="61"/>
+      <c r="C15" s="75"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="62" t="s">
-        <v>221</v>
-      </c>
-      <c r="C16" s="63"/>
+      <c r="B16" s="68" t="s">
+        <v>218</v>
+      </c>
+      <c r="C16" s="69"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="64" t="s">
-        <v>222</v>
-      </c>
-      <c r="C17" s="65"/>
+      <c r="B17" s="70" t="s">
+        <v>219</v>
+      </c>
+      <c r="C17" s="71"/>
     </row>
     <row r="18" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="60" t="s">
-        <v>223</v>
-      </c>
-      <c r="C18" s="61"/>
+      <c r="B18" s="74" t="s">
+        <v>220</v>
+      </c>
+      <c r="C18" s="75"/>
     </row>
     <row r="19" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7361,82 +7375,82 @@
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="63"/>
+      <c r="C21" s="69"/>
     </row>
     <row r="22" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="61"/>
+      <c r="C22" s="75"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="63"/>
+      <c r="C23" s="69"/>
     </row>
     <row r="24" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="65"/>
+      <c r="C24" s="71"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="63"/>
+      <c r="C25" s="69"/>
     </row>
     <row r="26" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="60" t="s">
+      <c r="B26" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="61"/>
+      <c r="C26" s="75"/>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="62" t="s">
+      <c r="B27" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="63"/>
+      <c r="C27" s="69"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="64" t="s">
+      <c r="B28" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="65"/>
+      <c r="C28" s="71"/>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="64" t="s">
+      <c r="B29" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="65"/>
+      <c r="C29" s="71"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="64" t="s">
+      <c r="B30" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="65"/>
+      <c r="C30" s="71"/>
     </row>
     <row r="31" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="64" t="s">
-        <v>570</v>
-      </c>
-      <c r="C31" s="65"/>
+      <c r="B31" s="70" t="s">
+        <v>562</v>
+      </c>
+      <c r="C31" s="71"/>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="63"/>
+      <c r="C32" s="69"/>
     </row>
     <row r="33" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="60" t="s">
+      <c r="B33" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="61"/>
+      <c r="C33" s="75"/>
     </row>
     <row r="34" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7448,82 +7462,82 @@
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="62" t="s">
+      <c r="B36" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="63"/>
+      <c r="C36" s="69"/>
     </row>
     <row r="37" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="60" t="s">
+      <c r="B37" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="61"/>
+      <c r="C37" s="75"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="62" t="s">
+      <c r="B38" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="63"/>
+      <c r="C38" s="69"/>
     </row>
     <row r="39" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="64" t="s">
+      <c r="B39" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="65"/>
+      <c r="C39" s="71"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B40" s="62" t="s">
+      <c r="B40" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="63"/>
+      <c r="C40" s="69"/>
     </row>
     <row r="41" spans="2:3" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="60" t="s">
+      <c r="B41" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="61"/>
+      <c r="C41" s="75"/>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B42" s="62" t="s">
+      <c r="B42" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="63"/>
+      <c r="C42" s="69"/>
     </row>
     <row r="43" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="64" t="s">
+      <c r="B43" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="C43" s="65"/>
+      <c r="C43" s="71"/>
     </row>
     <row r="44" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="64" t="s">
+      <c r="B44" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="65"/>
+      <c r="C44" s="71"/>
     </row>
     <row r="45" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="64" t="s">
+      <c r="B45" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="65"/>
+      <c r="C45" s="71"/>
     </row>
     <row r="46" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="64" t="s">
-        <v>219</v>
-      </c>
-      <c r="C46" s="65"/>
+      <c r="B46" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C46" s="71"/>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="62" t="s">
+      <c r="B47" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="63"/>
+      <c r="C47" s="69"/>
     </row>
     <row r="48" spans="2:3" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="60" t="s">
+      <c r="B48" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="61"/>
+      <c r="C48" s="75"/>
     </row>
     <row r="49" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7535,100 +7549,100 @@
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B51" s="62" t="s">
+      <c r="B51" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="C51" s="63"/>
+      <c r="C51" s="69"/>
     </row>
     <row r="52" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="60" t="s">
+      <c r="B52" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="C52" s="61"/>
+      <c r="C52" s="75"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B53" s="62" t="s">
+      <c r="B53" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="63"/>
+      <c r="C53" s="69"/>
     </row>
     <row r="54" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="64" t="s">
+      <c r="B54" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="C54" s="65"/>
+      <c r="C54" s="71"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B55" s="62" t="s">
+      <c r="B55" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="C55" s="63"/>
+      <c r="C55" s="69"/>
     </row>
     <row r="56" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="60" t="s">
+      <c r="B56" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="C56" s="61"/>
+      <c r="C56" s="75"/>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B57" s="62" t="s">
+      <c r="B57" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="63"/>
+      <c r="C57" s="69"/>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B58" s="64" t="s">
+      <c r="B58" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="C58" s="65"/>
+      <c r="C58" s="71"/>
     </row>
     <row r="59" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="64" t="s">
+      <c r="B59" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="65"/>
+      <c r="C59" s="71"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B60" s="64" t="s">
+      <c r="B60" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="C60" s="65"/>
+      <c r="C60" s="71"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B61" s="64" t="s">
+      <c r="B61" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="C61" s="65"/>
+      <c r="C61" s="71"/>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B62" s="64" t="s">
+      <c r="B62" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="C62" s="65"/>
+      <c r="C62" s="71"/>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B63" s="64" t="s">
-        <v>220</v>
-      </c>
-      <c r="C63" s="65"/>
+      <c r="B63" s="70" t="s">
+        <v>217</v>
+      </c>
+      <c r="C63" s="71"/>
     </row>
     <row r="64" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="64" t="s">
+      <c r="B64" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="C64" s="65"/>
+      <c r="C64" s="71"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B65" s="62" t="s">
+      <c r="B65" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="C65" s="63"/>
+      <c r="C65" s="69"/>
     </row>
     <row r="66" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="60" t="s">
+      <c r="B66" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="C66" s="61"/>
+      <c r="C66" s="75"/>
     </row>
     <row r="67" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="68" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7640,16 +7654,16 @@
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B69" s="62" t="s">
+      <c r="B69" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="C69" s="63"/>
+      <c r="C69" s="69"/>
     </row>
     <row r="70" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="64" t="s">
+      <c r="B70" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="C70" s="65"/>
+      <c r="C70" s="71"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B71" s="72" t="s">
@@ -7658,100 +7672,100 @@
       <c r="C71" s="73"/>
     </row>
     <row r="72" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="66" t="s">
+      <c r="B72" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="C72" s="67"/>
+      <c r="C72" s="61"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B73" s="68" t="s">
+      <c r="B73" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="C73" s="69"/>
+      <c r="C73" s="65"/>
     </row>
     <row r="74" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="70" t="s">
+      <c r="B74" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="C74" s="71"/>
+      <c r="C74" s="67"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B75" s="68" t="s">
+      <c r="B75" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="C75" s="69"/>
+      <c r="C75" s="65"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B76" s="66" t="s">
+      <c r="B76" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="C76" s="67"/>
+      <c r="C76" s="61"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B77" s="66" t="s">
+      <c r="B77" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="C77" s="67"/>
+      <c r="C77" s="61"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B78" s="66" t="s">
+      <c r="B78" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="C78" s="67"/>
+      <c r="C78" s="61"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B79" s="66" t="s">
+      <c r="B79" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="C79" s="67"/>
+      <c r="C79" s="61"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B80" s="66" t="s">
+      <c r="B80" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="C80" s="67"/>
+      <c r="C80" s="61"/>
     </row>
     <row r="81" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="66" t="s">
+      <c r="B81" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="C81" s="67"/>
+      <c r="C81" s="61"/>
     </row>
     <row r="82" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="66" t="s">
+      <c r="B82" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="C82" s="67"/>
+      <c r="C82" s="61"/>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B83" s="68" t="s">
+      <c r="B83" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="C83" s="69"/>
+      <c r="C83" s="65"/>
     </row>
     <row r="84" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="70" t="s">
+      <c r="B84" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="C84" s="71"/>
+      <c r="C84" s="67"/>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B85" s="68" t="s">
-        <v>224</v>
-      </c>
-      <c r="C85" s="69"/>
+      <c r="B85" s="64" t="s">
+        <v>221</v>
+      </c>
+      <c r="C85" s="65"/>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B86" s="66" t="s">
-        <v>225</v>
-      </c>
-      <c r="C86" s="67"/>
+      <c r="B86" s="60" t="s">
+        <v>222</v>
+      </c>
+      <c r="C86" s="61"/>
     </row>
     <row r="87" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="74" t="s">
-        <v>226</v>
-      </c>
-      <c r="C87" s="75"/>
+      <c r="B87" s="62" t="s">
+        <v>223</v>
+      </c>
+      <c r="C87" s="63"/>
     </row>
     <row r="88" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="89" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7763,16 +7777,16 @@
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B90" s="62" t="s">
+      <c r="B90" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="C90" s="63"/>
+      <c r="C90" s="69"/>
     </row>
     <row r="91" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="64" t="s">
+      <c r="B91" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="C91" s="65"/>
+      <c r="C91" s="71"/>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B92" s="72" t="s">
@@ -7781,110 +7795,176 @@
       <c r="C92" s="73"/>
     </row>
     <row r="93" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="66" t="s">
+      <c r="B93" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="C93" s="67"/>
+      <c r="C93" s="61"/>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B94" s="68" t="s">
+      <c r="B94" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="C94" s="69"/>
+      <c r="C94" s="65"/>
     </row>
     <row r="95" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="70" t="s">
+      <c r="B95" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="C95" s="71"/>
+      <c r="C95" s="67"/>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B96" s="68" t="s">
+      <c r="B96" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="C96" s="69"/>
+      <c r="C96" s="65"/>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B97" s="66" t="s">
+      <c r="B97" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="C97" s="67"/>
+      <c r="C97" s="61"/>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B98" s="66" t="s">
+      <c r="B98" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="C98" s="67"/>
+      <c r="C98" s="61"/>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B99" s="66" t="s">
+      <c r="B99" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="C99" s="67"/>
+      <c r="C99" s="61"/>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B100" s="66" t="s">
+      <c r="B100" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="C100" s="67"/>
+      <c r="C100" s="61"/>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B101" s="66" t="s">
+      <c r="B101" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="C101" s="67"/>
+      <c r="C101" s="61"/>
     </row>
     <row r="102" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="66" t="s">
+      <c r="B102" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="C102" s="67"/>
+      <c r="C102" s="61"/>
     </row>
     <row r="103" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B103" s="66" t="s">
+      <c r="B103" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="C103" s="67"/>
+      <c r="C103" s="61"/>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B104" s="68" t="s">
+      <c r="B104" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="C104" s="69"/>
+      <c r="C104" s="65"/>
     </row>
     <row r="105" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B105" s="70" t="s">
+      <c r="B105" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="C105" s="71"/>
+      <c r="C105" s="67"/>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B106" s="68" t="s">
+      <c r="B106" s="64" t="s">
+        <v>221</v>
+      </c>
+      <c r="C106" s="65"/>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B107" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="C106" s="69"/>
-    </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B107" s="66" t="s">
-        <v>227</v>
-      </c>
-      <c r="C107" s="67"/>
+      <c r="C107" s="61"/>
     </row>
     <row r="108" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="74" t="s">
-        <v>228</v>
-      </c>
-      <c r="C108" s="75"/>
+      <c r="B108" s="62" t="s">
+        <v>225</v>
+      </c>
+      <c r="C108" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
     <mergeCell ref="B79:C79"/>
     <mergeCell ref="B80:C80"/>
     <mergeCell ref="B81:C81"/>
@@ -7901,79 +7981,13 @@
     <mergeCell ref="B90:C90"/>
     <mergeCell ref="B91:C91"/>
     <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8007,130 +8021,130 @@
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="69"/>
+      <c r="C3" s="65"/>
     </row>
     <row r="4" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="71"/>
+      <c r="C4" s="67"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="69"/>
+      <c r="C5" s="65"/>
     </row>
     <row r="6" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="67"/>
+      <c r="C6" s="61"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="69"/>
+      <c r="C7" s="65"/>
     </row>
     <row r="8" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="70" t="s">
-        <v>458</v>
-      </c>
-      <c r="C8" s="71"/>
+      <c r="B8" s="66" t="s">
+        <v>452</v>
+      </c>
+      <c r="C8" s="67"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="69"/>
+      <c r="C9" s="65"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="60" t="s">
+        <v>443</v>
+      </c>
+      <c r="C10" s="61"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="60" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" s="61"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="60" t="s">
+        <v>441</v>
+      </c>
+      <c r="C12" s="61"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="60" t="s">
+        <v>444</v>
+      </c>
+      <c r="C13" s="61"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="60" t="s">
+        <v>563</v>
+      </c>
+      <c r="C14" s="61"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="60" t="s">
+        <v>446</v>
+      </c>
+      <c r="C15" s="61"/>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="60" t="s">
+        <v>445</v>
+      </c>
+      <c r="C16" s="61"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="60" t="s">
+        <v>447</v>
+      </c>
+      <c r="C17" s="61"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="60" t="s">
+        <v>448</v>
+      </c>
+      <c r="C18" s="61"/>
+    </row>
+    <row r="19" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="60" t="s">
         <v>449</v>
       </c>
-      <c r="C10" s="67"/>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="66" t="s">
-        <v>448</v>
-      </c>
-      <c r="C11" s="67"/>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="66" t="s">
-        <v>447</v>
-      </c>
-      <c r="C12" s="67"/>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="66" t="s">
+      <c r="C19" s="61"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="65"/>
+    </row>
+    <row r="21" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="67"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="64" t="s">
         <v>450</v>
       </c>
-      <c r="C13" s="67"/>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="66" t="s">
-        <v>571</v>
-      </c>
-      <c r="C14" s="67"/>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="66" t="s">
-        <v>452</v>
-      </c>
-      <c r="C15" s="67"/>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="66" t="s">
+      <c r="C22" s="65"/>
+    </row>
+    <row r="23" spans="2:3" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="62" t="s">
         <v>451</v>
       </c>
-      <c r="C16" s="67"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="66" t="s">
-        <v>453</v>
-      </c>
-      <c r="C17" s="67"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="66" t="s">
-        <v>454</v>
-      </c>
-      <c r="C18" s="67"/>
-    </row>
-    <row r="19" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="66" t="s">
-        <v>455</v>
-      </c>
-      <c r="C19" s="67"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="68" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="69"/>
-    </row>
-    <row r="21" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="70" t="s">
-        <v>111</v>
-      </c>
-      <c r="C21" s="71"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="68" t="s">
-        <v>456</v>
-      </c>
-      <c r="C22" s="69"/>
-    </row>
-    <row r="23" spans="2:3" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="74" t="s">
-        <v>457</v>
-      </c>
-      <c r="C23" s="75"/>
+      <c r="C23" s="63"/>
     </row>
     <row r="24" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8142,130 +8156,103 @@
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="62" t="s">
+      <c r="B26" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="63"/>
+      <c r="C26" s="69"/>
     </row>
     <row r="27" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="60" t="s">
+      <c r="B27" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="61"/>
+      <c r="C27" s="75"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="68" t="s">
+      <c r="B28" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="69"/>
+      <c r="C28" s="65"/>
     </row>
     <row r="29" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="66" t="s">
+      <c r="B29" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="C29" s="67"/>
+      <c r="C29" s="61"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="68" t="s">
+      <c r="B30" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="69"/>
+      <c r="C30" s="65"/>
     </row>
     <row r="31" spans="2:3" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="70" t="s">
+      <c r="B31" s="66" t="s">
+        <v>452</v>
+      </c>
+      <c r="C31" s="67"/>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="65"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="60" t="s">
+        <v>453</v>
+      </c>
+      <c r="C33" s="61"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="70" t="s">
+        <v>454</v>
+      </c>
+      <c r="C34" s="71"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="70" t="s">
+        <v>455</v>
+      </c>
+      <c r="C35" s="71"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="70" t="s">
+        <v>456</v>
+      </c>
+      <c r="C36" s="71"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="70" t="s">
+        <v>457</v>
+      </c>
+      <c r="C37" s="71"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="70" t="s">
         <v>458</v>
       </c>
-      <c r="C31" s="71"/>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="69"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="66" t="s">
+      <c r="C38" s="71"/>
+    </row>
+    <row r="39" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="60" t="s">
         <v>459</v>
       </c>
-      <c r="C33" s="67"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34" s="64" t="s">
-        <v>460</v>
-      </c>
-      <c r="C34" s="65"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35" s="64" t="s">
-        <v>461</v>
-      </c>
-      <c r="C35" s="65"/>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="64" t="s">
-        <v>462</v>
-      </c>
-      <c r="C36" s="65"/>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B37" s="64" t="s">
-        <v>463</v>
-      </c>
-      <c r="C37" s="65"/>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="64" t="s">
-        <v>464</v>
-      </c>
-      <c r="C38" s="65"/>
-    </row>
-    <row r="39" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="66" t="s">
-        <v>465</v>
-      </c>
-      <c r="C39" s="67"/>
+      <c r="C39" s="61"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B40" s="62" t="s">
+      <c r="B40" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="63"/>
+      <c r="C40" s="69"/>
     </row>
     <row r="41" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="60" t="s">
+      <c r="B41" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="C41" s="61"/>
+      <c r="C41" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
@@ -8276,6 +8263,33 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8302,230 +8316,230 @@
     <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="10" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="69"/>
+      <c r="C3" s="65"/>
     </row>
     <row r="4" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="71"/>
+      <c r="C4" s="67"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="69"/>
+      <c r="C5" s="65"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="67"/>
+      <c r="C6" s="61"/>
     </row>
     <row r="7" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="67"/>
+      <c r="C7" s="61"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="69"/>
+      <c r="C8" s="65"/>
     </row>
     <row r="9" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="71"/>
+      <c r="C9" s="67"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="69"/>
+      <c r="C10" s="65"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="67"/>
+      <c r="C11" s="61"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="60" t="s">
+        <v>373</v>
+      </c>
+      <c r="C12" s="61"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="60" t="s">
+        <v>374</v>
+      </c>
+      <c r="C13" s="61"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="C14" s="61"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="C15" s="61"/>
+    </row>
+    <row r="16" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="C16" s="61"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="60" t="s">
+        <v>378</v>
+      </c>
+      <c r="C17" s="61"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="C18" s="61"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="C19" s="61"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="60" t="s">
+        <v>392</v>
+      </c>
+      <c r="C20" s="61"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="60" t="s">
+        <v>393</v>
+      </c>
+      <c r="C21" s="61"/>
+    </row>
+    <row r="22" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="66" t="s">
+        <v>394</v>
+      </c>
+      <c r="C22" s="67"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="65"/>
+    </row>
+    <row r="24" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="60" t="s">
         <v>379</v>
       </c>
-      <c r="C12" s="67"/>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="66" t="s">
-        <v>380</v>
-      </c>
-      <c r="C13" s="67"/>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="66" t="s">
-        <v>381</v>
-      </c>
-      <c r="C14" s="67"/>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="66" t="s">
-        <v>382</v>
-      </c>
-      <c r="C15" s="67"/>
-    </row>
-    <row r="16" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="66" t="s">
-        <v>383</v>
-      </c>
-      <c r="C16" s="67"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="66" t="s">
-        <v>384</v>
-      </c>
-      <c r="C17" s="67"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="66" t="s">
-        <v>396</v>
-      </c>
-      <c r="C18" s="67"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="66" t="s">
-        <v>397</v>
-      </c>
-      <c r="C19" s="67"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="66" t="s">
-        <v>398</v>
-      </c>
-      <c r="C20" s="67"/>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="66" t="s">
-        <v>399</v>
-      </c>
-      <c r="C21" s="67"/>
-    </row>
-    <row r="22" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="70" t="s">
-        <v>400</v>
-      </c>
-      <c r="C22" s="71"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="68" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="69"/>
-    </row>
-    <row r="24" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="66" t="s">
-        <v>385</v>
-      </c>
-      <c r="C24" s="67"/>
+      <c r="C24" s="61"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="72" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C25" s="73"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="66" t="s">
-        <v>386</v>
-      </c>
-      <c r="C26" s="67"/>
+      <c r="B26" s="60" t="s">
+        <v>380</v>
+      </c>
+      <c r="C26" s="61"/>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="66" t="s">
-        <v>388</v>
-      </c>
-      <c r="C27" s="67"/>
+      <c r="B27" s="60" t="s">
+        <v>382</v>
+      </c>
+      <c r="C27" s="61"/>
     </row>
     <row r="28" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="74" t="s">
-        <v>389</v>
-      </c>
-      <c r="C28" s="75"/>
+      <c r="B28" s="62" t="s">
+        <v>383</v>
+      </c>
+      <c r="C28" s="63"/>
     </row>
     <row r="29" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="30" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B31" s="62" t="s">
+      <c r="B31" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="63"/>
+      <c r="C31" s="69"/>
     </row>
     <row r="32" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="60" t="s">
-        <v>468</v>
-      </c>
-      <c r="C32" s="61"/>
+      <c r="B32" s="74" t="s">
+        <v>462</v>
+      </c>
+      <c r="C32" s="75"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="68" t="s">
+      <c r="B33" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="69"/>
+      <c r="C33" s="65"/>
     </row>
     <row r="34" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="66" t="s">
+      <c r="B34" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="C34" s="67"/>
+      <c r="C34" s="61"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35" s="68" t="s">
+      <c r="B35" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="69"/>
+      <c r="C35" s="65"/>
     </row>
     <row r="36" spans="2:3" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="70" t="s">
-        <v>470</v>
-      </c>
-      <c r="C36" s="71"/>
+      <c r="B36" s="66" t="s">
+        <v>464</v>
+      </c>
+      <c r="C36" s="67"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B37" s="68" t="s">
+      <c r="B37" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="69"/>
+      <c r="C37" s="65"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="66" t="s">
-        <v>471</v>
-      </c>
-      <c r="C38" s="67"/>
+      <c r="B38" s="60" t="s">
+        <v>465</v>
+      </c>
+      <c r="C38" s="61"/>
     </row>
     <row r="39" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="66" t="s">
-        <v>472</v>
-      </c>
-      <c r="C39" s="67"/>
+      <c r="B39" s="60" t="s">
+        <v>466</v>
+      </c>
+      <c r="C39" s="61"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40" s="72" t="s">
@@ -8534,10 +8548,10 @@
       <c r="C40" s="73"/>
     </row>
     <row r="41" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="74" t="s">
-        <v>473</v>
-      </c>
-      <c r="C41" s="75"/>
+      <c r="B41" s="62" t="s">
+        <v>467</v>
+      </c>
+      <c r="C41" s="63"/>
     </row>
     <row r="42" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="43" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8549,185 +8563,151 @@
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="62" t="s">
+      <c r="B44" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="63"/>
+      <c r="C44" s="69"/>
     </row>
     <row r="45" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="60" t="s">
+      <c r="B45" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="C45" s="61"/>
+      <c r="C45" s="75"/>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="68" t="s">
+      <c r="B46" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="69"/>
+      <c r="C46" s="65"/>
     </row>
     <row r="47" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="66" t="s">
+      <c r="B47" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="C47" s="67"/>
+      <c r="C47" s="61"/>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B48" s="68" t="s">
+      <c r="B48" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="69"/>
+      <c r="C48" s="65"/>
     </row>
     <row r="49" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="70" t="s">
-        <v>469</v>
-      </c>
-      <c r="C49" s="71"/>
+      <c r="B49" s="66" t="s">
+        <v>463</v>
+      </c>
+      <c r="C49" s="67"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B50" s="68" t="s">
+      <c r="B50" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="C50" s="69"/>
+      <c r="C50" s="65"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B51" s="66" t="s">
+      <c r="B51" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="C51" s="67"/>
+      <c r="C51" s="61"/>
     </row>
     <row r="52" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="66" t="s">
-        <v>391</v>
-      </c>
-      <c r="C52" s="67"/>
+      <c r="B52" s="60" t="s">
+        <v>385</v>
+      </c>
+      <c r="C52" s="61"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B53" s="64" t="s">
-        <v>390</v>
-      </c>
-      <c r="C53" s="65"/>
+      <c r="B53" s="70" t="s">
+        <v>384</v>
+      </c>
+      <c r="C53" s="71"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B54" s="64" t="s">
-        <v>392</v>
-      </c>
-      <c r="C54" s="65"/>
+      <c r="B54" s="70" t="s">
+        <v>386</v>
+      </c>
+      <c r="C54" s="71"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B55" s="64" t="s">
-        <v>393</v>
-      </c>
-      <c r="C55" s="65"/>
+      <c r="B55" s="70" t="s">
+        <v>387</v>
+      </c>
+      <c r="C55" s="71"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B56" s="64" t="s">
-        <v>394</v>
-      </c>
-      <c r="C56" s="65"/>
+      <c r="B56" s="70" t="s">
+        <v>388</v>
+      </c>
+      <c r="C56" s="71"/>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B57" s="64" t="s">
-        <v>395</v>
-      </c>
-      <c r="C57" s="65"/>
+      <c r="B57" s="70" t="s">
+        <v>389</v>
+      </c>
+      <c r="C57" s="71"/>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B58" s="64" t="s">
-        <v>404</v>
-      </c>
-      <c r="C58" s="65"/>
+      <c r="B58" s="70" t="s">
+        <v>398</v>
+      </c>
+      <c r="C58" s="71"/>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B59" s="64" t="s">
-        <v>405</v>
-      </c>
-      <c r="C59" s="65"/>
+      <c r="B59" s="70" t="s">
+        <v>399</v>
+      </c>
+      <c r="C59" s="71"/>
     </row>
     <row r="60" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="66" t="s">
-        <v>406</v>
-      </c>
-      <c r="C60" s="67"/>
+      <c r="B60" s="60" t="s">
+        <v>400</v>
+      </c>
+      <c r="C60" s="61"/>
     </row>
     <row r="61" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="66" t="s">
-        <v>407</v>
-      </c>
-      <c r="C61" s="67"/>
+      <c r="B61" s="60" t="s">
+        <v>401</v>
+      </c>
+      <c r="C61" s="61"/>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B62" s="62" t="s">
+      <c r="B62" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="C62" s="63"/>
+      <c r="C62" s="69"/>
     </row>
     <row r="63" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="64" t="s">
+      <c r="B63" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="C63" s="65"/>
+      <c r="C63" s="71"/>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B64" s="72" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C64" s="73"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B65" s="66" t="s">
-        <v>402</v>
-      </c>
-      <c r="C65" s="67"/>
+      <c r="B65" s="60" t="s">
+        <v>396</v>
+      </c>
+      <c r="C65" s="61"/>
     </row>
     <row r="66" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="74" t="s">
-        <v>403</v>
-      </c>
-      <c r="C66" s="75"/>
+      <c r="B66" s="62" t="s">
+        <v>397</v>
+      </c>
+      <c r="C66" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
@@ -8742,12 +8722,46 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
